--- a/data/nzd0103/nzd0103.xlsx
+++ b/data/nzd0103/nzd0103.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E319"/>
+  <dimension ref="A1:E325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6932,6 +6932,128 @@
       <c r="E319" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-26 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr"/>
+      <c r="C320" t="inlineStr"/>
+      <c r="D320" t="n">
+        <v>403.5757142857143</v>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>342.1</v>
+      </c>
+      <c r="C321" t="n">
+        <v>331.49</v>
+      </c>
+      <c r="D321" t="n">
+        <v>380.2457142857143</v>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>334.73</v>
+      </c>
+      <c r="C322" t="n">
+        <v>339.1733333333333</v>
+      </c>
+      <c r="D322" t="n">
+        <v>414.0157142857143</v>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>353.7</v>
+      </c>
+      <c r="C323" t="n">
+        <v>354.6833333333333</v>
+      </c>
+      <c r="D323" t="n">
+        <v>416.8414285714285</v>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>334.74</v>
+      </c>
+      <c r="C324" t="n">
+        <v>329.3</v>
+      </c>
+      <c r="D324" t="n">
+        <v>404.8185714285714</v>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>341.25</v>
+      </c>
+      <c r="C325" t="n">
+        <v>332.97</v>
+      </c>
+      <c r="D325" t="n">
+        <v>376.5085714285714</v>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -6946,7 +7068,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B360"/>
+  <dimension ref="A1:B366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10554,6 +10676,66 @@
       </c>
       <c r="B360" t="n">
         <v>1.09</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2024-11-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>0.87</v>
       </c>
     </row>
   </sheetData>
@@ -10722,28 +10904,28 @@
         <v>0.0456</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2072890298596661</v>
+        <v>0.2039546991125691</v>
       </c>
       <c r="J2" t="n">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="K2" t="n">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007039712130948561</v>
+        <v>0.007083303640013972</v>
       </c>
       <c r="M2" t="n">
-        <v>14.04293315847473</v>
+        <v>13.89437336327621</v>
       </c>
       <c r="N2" t="n">
-        <v>302.7456130336918</v>
+        <v>298.3231176387913</v>
       </c>
       <c r="O2" t="n">
-        <v>17.39958657651646</v>
+        <v>17.27203281721035</v>
       </c>
       <c r="P2" t="n">
-        <v>336.94808076181</v>
+        <v>336.9808262636767</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -10799,28 +10981,28 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1722974473757238</v>
+        <v>0.1586869767190553</v>
       </c>
       <c r="J3" t="n">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="K3" t="n">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006245414720538078</v>
+        <v>0.005473767489913017</v>
       </c>
       <c r="M3" t="n">
-        <v>12.27972290569416</v>
+        <v>12.22053770161329</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1269376090156</v>
+        <v>228.8713694709231</v>
       </c>
       <c r="O3" t="n">
-        <v>15.20285952079462</v>
+        <v>15.12849528112175</v>
       </c>
       <c r="P3" t="n">
-        <v>336.9522375075605</v>
+        <v>337.0893511507145</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -10876,28 +11058,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4865253062410763</v>
+        <v>0.4854753259788593</v>
       </c>
       <c r="J4" t="n">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="K4" t="n">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0567264924046621</v>
+        <v>0.05753714514623254</v>
       </c>
       <c r="M4" t="n">
-        <v>10.97881704171342</v>
+        <v>11.04055640459715</v>
       </c>
       <c r="N4" t="n">
-        <v>198.2186441105866</v>
+        <v>199.158742891679</v>
       </c>
       <c r="O4" t="n">
-        <v>14.07901431601611</v>
+        <v>14.11236135066272</v>
       </c>
       <c r="P4" t="n">
-        <v>387.2264674706742</v>
+        <v>387.2375140677568</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -10934,7 +11116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E319"/>
+  <dimension ref="A1:E325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19143,6 +19325,160 @@
         </is>
       </c>
     </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-26 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr"/>
+      <c r="C320" t="inlineStr"/>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>-35.84048784085479,174.58058181384308</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>-35.83919634572896,174.57955948812995</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>-35.83994966583759,174.57957068483614</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>-35.84054595343426,174.5803335996894</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>-35.83920615970632,174.57947879618513</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>-35.83993495530376,174.5796538005511</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>-35.840461835748066,174.58069288769184</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>-35.83918089892578,174.57968649304615</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>-35.839905259636694,174.57982158241296</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>-35.84045479712901,174.5807229511808</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>-35.83920614639025,174.57947890567218</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>-35.83995385880799,174.57954699414694</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>-35.84048474501405,174.5805950369243</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>-35.83919747760155,174.57955018173308</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>-35.839946832229415,174.57958669498075</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>-35.84055526221772,174.58029383918463</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0103/nzd0103.xlsx
+++ b/data/nzd0103/nzd0103.xlsx
@@ -10749,7 +10749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10840,35 +10840,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -10927,27 +10932,28 @@
       <c r="P2" t="n">
         <v>336.9808262636767</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.575813913571 -35.83965183342478, 174.585936307438 -35.83842060104541)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.575813913571</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.83965183342478</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.585936307438</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.83842060104541</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.5808751105045</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.83903621723509</v>
       </c>
     </row>
@@ -11004,27 +11010,28 @@
       <c r="P3" t="n">
         <v>337.0893511507145</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.57598470631518 -35.840584283556964, 174.58598554729352 -35.83881412436941)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.5759847063152</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.84058428355696</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.5859855472935</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.83881412436941</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.5809851268044</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.83969920396319</v>
       </c>
     </row>
@@ -11081,27 +11088,28 @@
       <c r="P4" t="n">
         <v>387.2375140677568</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.57628800952338 -35.84149303447427, 174.58612344763367 -35.83919026383604)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.5762880095234</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.84149303447427</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.5861234476337</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.83919026383604</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.5812057285785</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.84034164915515</v>
       </c>
     </row>

--- a/data/nzd0103/nzd0103.xlsx
+++ b/data/nzd0103/nzd0103.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E325"/>
+  <dimension ref="A1:E327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7054,6 +7054,48 @@
       <c r="E325" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>335.68</v>
+      </c>
+      <c r="C326" t="n">
+        <v>341.0033333333333</v>
+      </c>
+      <c r="D326" t="n">
+        <v>406.3471428571429</v>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:32+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>309.14</v>
+      </c>
+      <c r="C327" t="n">
+        <v>318.4333333333333</v>
+      </c>
+      <c r="D327" t="n">
+        <v>379.2142857142857</v>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -7068,7 +7110,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B366"/>
+  <dimension ref="A1:B368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10736,6 +10778,26 @@
       </c>
       <c r="B366" t="n">
         <v>0.87</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>-0.02</v>
       </c>
     </row>
   </sheetData>
@@ -10909,28 +10971,28 @@
         <v>0.0456</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2039546991125691</v>
+        <v>0.1746884510860401</v>
       </c>
       <c r="J2" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K2" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007083303640013972</v>
+        <v>0.005224099369429025</v>
       </c>
       <c r="M2" t="n">
-        <v>13.89437336327621</v>
+        <v>13.93803456559384</v>
       </c>
       <c r="N2" t="n">
-        <v>298.3231176387913</v>
+        <v>300.1278465181237</v>
       </c>
       <c r="O2" t="n">
-        <v>17.27203281721035</v>
+        <v>17.32419829366207</v>
       </c>
       <c r="P2" t="n">
-        <v>336.9808262636767</v>
+        <v>337.2715206362857</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -10987,28 +11049,28 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1586869767190553</v>
+        <v>0.1422237827803427</v>
       </c>
       <c r="J3" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K3" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005473767489913017</v>
+        <v>0.00443702315848693</v>
       </c>
       <c r="M3" t="n">
-        <v>12.22053770161329</v>
+        <v>12.20758018091915</v>
       </c>
       <c r="N3" t="n">
-        <v>228.8713694709231</v>
+        <v>229.0501054297429</v>
       </c>
       <c r="O3" t="n">
-        <v>15.12849528112175</v>
+        <v>15.13440138987145</v>
       </c>
       <c r="P3" t="n">
-        <v>337.0893511507145</v>
+        <v>337.2573038274301</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11065,28 +11127,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4854753259788593</v>
+        <v>0.4756669221716099</v>
       </c>
       <c r="J4" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K4" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05753714514623254</v>
+        <v>0.05572335452683475</v>
       </c>
       <c r="M4" t="n">
-        <v>11.04055640459715</v>
+        <v>11.05991149918348</v>
       </c>
       <c r="N4" t="n">
-        <v>199.158742891679</v>
+        <v>199.3827109926669</v>
       </c>
       <c r="O4" t="n">
-        <v>14.11236135066272</v>
+        <v>14.12029429554026</v>
       </c>
       <c r="P4" t="n">
-        <v>387.2375140677568</v>
+        <v>387.3376915614552</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11124,7 +11186,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E325"/>
+  <dimension ref="A1:E327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19487,6 +19549,60 @@
         </is>
       </c>
     </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>-35.83920489467833,174.57948919745468</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>-35.839931451571715,174.57967359687058</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>-35.84048093748382,174.58061129979285</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:32+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>-35.83924023522963,174.57919861869246</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>-35.839974664041875,174.57942944213374</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>-35.84054852260286,174.58032262603425</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0103/nzd0103.xlsx
+++ b/data/nzd0103/nzd0103.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E327"/>
+  <dimension ref="A1:E330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7094,6 +7094,69 @@
         <v>379.2142857142857</v>
       </c>
       <c r="E327" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>327.75</v>
+      </c>
+      <c r="C328" t="n">
+        <v>325.6333333333333</v>
+      </c>
+      <c r="D328" t="n">
+        <v>397.8585714285715</v>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>327.7</v>
+      </c>
+      <c r="C329" t="n">
+        <v>330.6633333333334</v>
+      </c>
+      <c r="D329" t="n">
+        <v>403.4157142857143</v>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>325.93</v>
+      </c>
+      <c r="C330" t="n">
+        <v>327.11</v>
+      </c>
+      <c r="D330" t="n">
+        <v>392.4114285714285</v>
+      </c>
+      <c r="E330" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -7110,7 +7173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B368"/>
+  <dimension ref="A1:B371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10798,6 +10861,36 @@
       </c>
       <c r="B368" t="n">
         <v>-0.02</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -10971,28 +11064,28 @@
         <v>0.0456</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1746884510860401</v>
+        <v>0.1430713520859342</v>
       </c>
       <c r="J2" t="n">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K2" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005224099369429025</v>
+        <v>0.003570738993168399</v>
       </c>
       <c r="M2" t="n">
-        <v>13.93803456559384</v>
+        <v>13.94735442048395</v>
       </c>
       <c r="N2" t="n">
-        <v>300.1278465181237</v>
+        <v>299.1789635370022</v>
       </c>
       <c r="O2" t="n">
-        <v>17.32419829366207</v>
+        <v>17.29679055596738</v>
       </c>
       <c r="P2" t="n">
-        <v>337.2715206362857</v>
+        <v>337.5867395726045</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11049,28 +11142,28 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1422237827803427</v>
+        <v>0.1146544886713114</v>
       </c>
       <c r="J3" t="n">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K3" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00443702315848693</v>
+        <v>0.002933270598713733</v>
       </c>
       <c r="M3" t="n">
-        <v>12.20758018091915</v>
+        <v>12.20503572406709</v>
       </c>
       <c r="N3" t="n">
-        <v>229.0501054297429</v>
+        <v>228.4681920873306</v>
       </c>
       <c r="O3" t="n">
-        <v>15.13440138987145</v>
+        <v>15.11516430897563</v>
       </c>
       <c r="P3" t="n">
-        <v>337.2573038274301</v>
+        <v>337.5393375039584</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11127,28 +11220,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4756669221716099</v>
+        <v>0.4721762912790287</v>
       </c>
       <c r="J4" t="n">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K4" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05572335452683475</v>
+        <v>0.05605537966421892</v>
       </c>
       <c r="M4" t="n">
-        <v>11.05991149918348</v>
+        <v>10.98984952035903</v>
       </c>
       <c r="N4" t="n">
-        <v>199.3827109926669</v>
+        <v>197.5577095702818</v>
       </c>
       <c r="O4" t="n">
-        <v>14.12029429554026</v>
+        <v>14.05552238695815</v>
       </c>
       <c r="P4" t="n">
-        <v>387.3376915614552</v>
+        <v>387.3733848471455</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11186,7 +11279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E327"/>
+  <dimension ref="A1:E330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19603,6 +19696,87 @@
         </is>
       </c>
     </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>-35.83921545430564,174.5794023742145</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>-35.839960878991626,174.57950732936453</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>-35.840502081703775,174.58052098765555</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>-35.83921552088569,174.5794018267791</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>-35.83995124857278,174.5795617422323</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>-35.84048823939971,174.58058011156126</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>-35.83921787781787,174.57938244756562</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>-35.83995805177378,174.57952330345506</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>-35.84051564998075,174.58046303404782</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0103/nzd0103.xlsx
+++ b/data/nzd0103/nzd0103.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0103/nzd0103.xlsx
+++ b/data/nzd0103/nzd0103.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E330"/>
+  <dimension ref="A1:E331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7159,6 +7159,27 @@
       <c r="E330" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>327.07</v>
+      </c>
+      <c r="C331" t="n">
+        <v>326.6566666666666</v>
+      </c>
+      <c r="D331" t="n">
+        <v>385.1914285714286</v>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -7173,7 +7194,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B371"/>
+  <dimension ref="A1:B372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10891,6 +10912,16 @@
       </c>
       <c r="B371" t="n">
         <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>-0.73</v>
       </c>
     </row>
   </sheetData>
@@ -11064,28 +11095,28 @@
         <v>0.0456</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1430713520859342</v>
+        <v>0.132921823579831</v>
       </c>
       <c r="J2" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K2" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003570738993168399</v>
+        <v>0.003101005236136767</v>
       </c>
       <c r="M2" t="n">
-        <v>13.94735442048395</v>
+        <v>13.94989287386613</v>
       </c>
       <c r="N2" t="n">
-        <v>299.1789635370022</v>
+        <v>298.8387865091168</v>
       </c>
       <c r="O2" t="n">
-        <v>17.29679055596738</v>
+        <v>17.28695422881419</v>
       </c>
       <c r="P2" t="n">
-        <v>337.5867395726045</v>
+        <v>337.6881166349025</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11142,28 +11173,28 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1146544886713114</v>
+        <v>0.105023042101986</v>
       </c>
       <c r="J3" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K3" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002933270598713733</v>
+        <v>0.002474087157437355</v>
       </c>
       <c r="M3" t="n">
-        <v>12.20503572406709</v>
+        <v>12.20613537018868</v>
       </c>
       <c r="N3" t="n">
-        <v>228.4681920873306</v>
+        <v>228.3385034807428</v>
       </c>
       <c r="O3" t="n">
-        <v>15.11516430897563</v>
+        <v>15.11087368356783</v>
       </c>
       <c r="P3" t="n">
-        <v>337.5393375039584</v>
+        <v>337.6380565829409</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11220,28 +11251,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4721762912790287</v>
+        <v>0.4623457874418067</v>
       </c>
       <c r="J4" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K4" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05605537966421892</v>
+        <v>0.05405933146190223</v>
       </c>
       <c r="M4" t="n">
-        <v>10.98984952035903</v>
+        <v>11.00277217187039</v>
       </c>
       <c r="N4" t="n">
-        <v>197.5577095702818</v>
+        <v>197.5793579240454</v>
       </c>
       <c r="O4" t="n">
-        <v>14.05552238695815</v>
+        <v>14.0562924672207</v>
       </c>
       <c r="P4" t="n">
-        <v>387.3733848471455</v>
+        <v>387.4739995796614</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11279,7 +11310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E330"/>
+  <dimension ref="A1:E331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19777,6 +19808,33 @@
         </is>
       </c>
     </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>-35.83921635979411,174.5793949290931</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>-35.839958919723486,174.57951839944548</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>-35.840533634221586,174.5803862185075</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0103/nzd0103.xlsx
+++ b/data/nzd0103/nzd0103.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E331"/>
+  <dimension ref="A1:E332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7180,6 +7180,27 @@
       <c r="E331" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>327.65</v>
+      </c>
+      <c r="C332" t="n">
+        <v>329.0633333333333</v>
+      </c>
+      <c r="D332" t="n">
+        <v>402.33</v>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -7194,7 +7215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B372"/>
+  <dimension ref="A1:B373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10922,6 +10943,16 @@
       </c>
       <c r="B372" t="n">
         <v>-0.73</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>
@@ -11095,28 +11126,28 @@
         <v>0.0456</v>
       </c>
       <c r="I2" t="n">
-        <v>0.132921823579831</v>
+        <v>0.1233050792472296</v>
       </c>
       <c r="J2" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K2" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003101005236136767</v>
+        <v>0.002685488015664372</v>
       </c>
       <c r="M2" t="n">
-        <v>13.94989287386613</v>
+        <v>13.9493387341079</v>
       </c>
       <c r="N2" t="n">
-        <v>298.8387865091168</v>
+        <v>298.4333405345322</v>
       </c>
       <c r="O2" t="n">
-        <v>17.28695422881419</v>
+        <v>17.27522331359373</v>
       </c>
       <c r="P2" t="n">
-        <v>337.6881166349025</v>
+        <v>337.7846242969317</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11173,28 +11204,28 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.105023042101986</v>
+        <v>0.09716878895968657</v>
       </c>
       <c r="J3" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K3" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002474087157437355</v>
+        <v>0.002130819643769266</v>
       </c>
       <c r="M3" t="n">
-        <v>12.20613537018868</v>
+        <v>12.19920796399545</v>
       </c>
       <c r="N3" t="n">
-        <v>228.3385034807428</v>
+        <v>228.0001777627407</v>
       </c>
       <c r="O3" t="n">
-        <v>15.11087368356783</v>
+        <v>15.0996747568529</v>
       </c>
       <c r="P3" t="n">
-        <v>337.6380565829409</v>
+        <v>337.7189378891734</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11251,28 +11282,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4623457874418067</v>
+        <v>0.4643216535339753</v>
       </c>
       <c r="J4" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K4" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05405933146190223</v>
+        <v>0.05486749073811692</v>
       </c>
       <c r="M4" t="n">
-        <v>11.00277217187039</v>
+        <v>10.97460522872335</v>
       </c>
       <c r="N4" t="n">
-        <v>197.5793579240454</v>
+        <v>196.9309409823998</v>
       </c>
       <c r="O4" t="n">
-        <v>14.0562924672207</v>
+        <v>14.03320850633952</v>
       </c>
       <c r="P4" t="n">
-        <v>387.4739995796614</v>
+        <v>387.4536746021676</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11310,7 +11341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E331"/>
+  <dimension ref="A1:E332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19835,6 +19866,33 @@
         </is>
       </c>
     </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>-35.83921558746573,174.57940127934373</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>-35.839954311929326,174.57954443396576</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>-35.84049094381098,174.58056856036288</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0103/nzd0103.xlsx
+++ b/data/nzd0103/nzd0103.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E332"/>
+  <dimension ref="A1:E335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7199,6 +7199,69 @@
         <v>402.33</v>
       </c>
       <c r="E332" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>312.02</v>
+      </c>
+      <c r="C333" t="n">
+        <v>323.2</v>
+      </c>
+      <c r="D333" t="n">
+        <v>392.2257142857143</v>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>320.48</v>
+      </c>
+      <c r="C334" t="n">
+        <v>323.46</v>
+      </c>
+      <c r="D334" t="n">
+        <v>395.3057142857143</v>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>311.39</v>
+      </c>
+      <c r="C335" t="n">
+        <v>317.3433333333333</v>
+      </c>
+      <c r="D335" t="n">
+        <v>388.3971428571429</v>
+      </c>
+      <c r="E335" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -7215,7 +7278,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B373"/>
+  <dimension ref="A1:B376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10953,6 +11016,36 @@
       </c>
       <c r="B373" t="n">
         <v>0.49</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>
@@ -11126,28 +11219,28 @@
         <v>0.0456</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1233050792472296</v>
+        <v>0.06843871904675987</v>
       </c>
       <c r="J2" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K2" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002685488015664372</v>
+        <v>0.0008290193281037528</v>
       </c>
       <c r="M2" t="n">
-        <v>13.9493387341079</v>
+        <v>14.07688442531444</v>
       </c>
       <c r="N2" t="n">
-        <v>298.4333405345322</v>
+        <v>302.3762840890568</v>
       </c>
       <c r="O2" t="n">
-        <v>17.27522331359373</v>
+        <v>17.38897018483432</v>
       </c>
       <c r="P2" t="n">
-        <v>337.7846242969317</v>
+        <v>338.3367744181326</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11204,28 +11297,28 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09716878895968657</v>
+        <v>0.05873601019780254</v>
       </c>
       <c r="J3" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K3" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002130819643769266</v>
+        <v>0.0007851699688175007</v>
       </c>
       <c r="M3" t="n">
-        <v>12.19920796399545</v>
+        <v>12.24040102453297</v>
       </c>
       <c r="N3" t="n">
-        <v>228.0001777627407</v>
+        <v>229.2403327878948</v>
       </c>
       <c r="O3" t="n">
-        <v>15.0996747568529</v>
+        <v>15.14068468689229</v>
       </c>
       <c r="P3" t="n">
-        <v>337.7189378891734</v>
+        <v>338.1158524143531</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11282,28 +11375,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4643216535339753</v>
+        <v>0.4492452983498407</v>
       </c>
       <c r="J4" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K4" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05486749073811692</v>
+        <v>0.05244514734973771</v>
       </c>
       <c r="M4" t="n">
-        <v>10.97460522872335</v>
+        <v>10.94044201262501</v>
       </c>
       <c r="N4" t="n">
-        <v>196.9309409823998</v>
+        <v>195.5681239965071</v>
       </c>
       <c r="O4" t="n">
-        <v>14.03320850633952</v>
+        <v>13.98456735106621</v>
       </c>
       <c r="P4" t="n">
-        <v>387.4536746021676</v>
+        <v>387.6092510105287</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11341,7 +11434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E332"/>
+  <dimension ref="A1:E335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19893,6 +19986,87 @@
         </is>
       </c>
     </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>-35.83923640026755,174.57923015099087</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>-35.83996553783363,174.57948100636847</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>-35.84051611257561,174.58046105818357</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>-35.83922513501903,174.57932277709813</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>-35.839965040039814,174.57948381896273</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>-35.840508440613824,174.58049382712915</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>-35.839237239166216,174.57922325330085</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>-35.83997675094098,174.57941765086989</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>-35.840525649139224,174.58042032497667</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0103/nzd0103.xlsx
+++ b/data/nzd0103/nzd0103.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E335"/>
+  <dimension ref="A1:E337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7262,6 +7262,44 @@
         <v>388.3971428571429</v>
       </c>
       <c r="E335" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:12:03+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>323.06</v>
+      </c>
+      <c r="C336" t="n">
+        <v>326.8866666666667</v>
+      </c>
+      <c r="D336" t="n">
+        <v>391.3414285714285</v>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr"/>
+      <c r="C337" t="n">
+        <v>331.0466666666666</v>
+      </c>
+      <c r="D337" t="inlineStr"/>
+      <c r="E337" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -7278,7 +7316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B376"/>
+  <dimension ref="A1:B378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11046,6 +11084,26 @@
       </c>
       <c r="B376" t="n">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>-0.73</v>
       </c>
     </row>
   </sheetData>
@@ -11434,7 +11492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E335"/>
+  <dimension ref="A1:E337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20067,6 +20125,52 @@
         </is>
       </c>
     </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:12:03+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>-35.83922169950362,174.5793510247705</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>-35.83995847936668,174.5795208875092</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>-35.84051831523834,174.5804516500296</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr"/>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>-35.83995051464322,174.57956588900427</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr"/>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0103/nzd0103.xlsx
+++ b/data/nzd0103/nzd0103.xlsx
@@ -11277,28 +11277,28 @@
         <v>0.0456</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06843871904675987</v>
+        <v>0.05659072038499876</v>
       </c>
       <c r="J2" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K2" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0008290193281037528</v>
+        <v>0.0005695817696398375</v>
       </c>
       <c r="M2" t="n">
-        <v>14.07688442531444</v>
+        <v>14.08767058815688</v>
       </c>
       <c r="N2" t="n">
-        <v>302.3762840890568</v>
+        <v>302.3276630068339</v>
       </c>
       <c r="O2" t="n">
-        <v>17.38897018483432</v>
+        <v>17.38757208487815</v>
       </c>
       <c r="P2" t="n">
-        <v>338.3367744181326</v>
+        <v>338.4566826848676</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -11355,28 +11355,28 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05873601019780254</v>
+        <v>0.04438424545560112</v>
       </c>
       <c r="J3" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K3" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0007851699688175007</v>
+        <v>0.0004536744467098508</v>
       </c>
       <c r="M3" t="n">
-        <v>12.24040102453297</v>
+        <v>12.21991650070809</v>
       </c>
       <c r="N3" t="n">
-        <v>229.2403327878948</v>
+        <v>228.5027515086395</v>
       </c>
       <c r="O3" t="n">
-        <v>15.14068468689229</v>
+        <v>15.11630746937358</v>
       </c>
       <c r="P3" t="n">
-        <v>338.1158524143531</v>
+        <v>338.2649466873973</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11433,28 +11433,28 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4492452983498407</v>
+        <v>0.4439062813874871</v>
       </c>
       <c r="J4" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K4" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05244514734973771</v>
+        <v>0.05156592879280852</v>
       </c>
       <c r="M4" t="n">
-        <v>10.94044201262501</v>
+        <v>10.93057913290705</v>
       </c>
       <c r="N4" t="n">
-        <v>195.5681239965071</v>
+        <v>195.1206692536542</v>
       </c>
       <c r="O4" t="n">
-        <v>13.98456735106621</v>
+        <v>13.96856002792178</v>
       </c>
       <c r="P4" t="n">
-        <v>387.6092510105287</v>
+        <v>387.6646694677499</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">

--- a/data/nzd0103/nzd0103.xlsx
+++ b/data/nzd0103/nzd0103.xlsx
@@ -494,10 +494,10 @@
         <v>335.5</v>
       </c>
       <c r="C3" t="n">
-        <v>333.3466666666667</v>
+        <v>333.35</v>
       </c>
       <c r="D3" t="n">
-        <v>392.8814285714286</v>
+        <v>392.88</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -515,10 +515,10 @@
         <v>334.22</v>
       </c>
       <c r="C4" t="n">
-        <v>331.6433333333334</v>
+        <v>331.64</v>
       </c>
       <c r="D4" t="n">
-        <v>391.6528571428572</v>
+        <v>391.65</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -536,10 +536,10 @@
         <v>331.32</v>
       </c>
       <c r="C5" t="n">
-        <v>321.3133333333333</v>
+        <v>321.31</v>
       </c>
       <c r="D5" t="n">
-        <v>394.3542857142857</v>
+        <v>394.35</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         <v>334.62</v>
       </c>
       <c r="D7" t="n">
-        <v>413.8885714285714</v>
+        <v>413.89</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -598,7 +598,7 @@
         <v>341.96</v>
       </c>
       <c r="D8" t="n">
-        <v>403.8585714285715</v>
+        <v>403.86</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
         <v>297.33</v>
       </c>
       <c r="D9" t="n">
-        <v>345.7242857142857</v>
+        <v>345.72</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         <v>321.96</v>
       </c>
       <c r="D10" t="n">
-        <v>385.2842857142857</v>
+        <v>385.28</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -658,10 +658,10 @@
         <v>310.46</v>
       </c>
       <c r="C11" t="n">
-        <v>317.0766666666667</v>
+        <v>317.08</v>
       </c>
       <c r="D11" t="n">
-        <v>366.2385714285714</v>
+        <v>366.24</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         <v>322.34</v>
       </c>
       <c r="D12" t="n">
-        <v>377.9085714285715</v>
+        <v>377.91</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -700,10 +700,10 @@
         <v>316.49</v>
       </c>
       <c r="C13" t="n">
-        <v>321.2633333333333</v>
+        <v>321.26</v>
       </c>
       <c r="D13" t="n">
-        <v>380.3171428571428</v>
+        <v>380.32</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -721,10 +721,10 @@
         <v>308.08</v>
       </c>
       <c r="C14" t="n">
-        <v>305.9533333333334</v>
+        <v>305.95</v>
       </c>
       <c r="D14" t="n">
-        <v>388.5385714285715</v>
+        <v>388.54</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -742,10 +742,10 @@
         <v>316.28</v>
       </c>
       <c r="C15" t="n">
-        <v>323.4033333333334</v>
+        <v>323.4</v>
       </c>
       <c r="D15" t="n">
-        <v>396.7214285714285</v>
+        <v>396.72</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -780,10 +780,10 @@
         <v>319.59</v>
       </c>
       <c r="C17" t="n">
-        <v>311.7633333333333</v>
+        <v>311.76</v>
       </c>
       <c r="D17" t="n">
-        <v>378.4014285714285</v>
+        <v>378.4</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -804,7 +804,7 @@
         <v>323.68</v>
       </c>
       <c r="D18" t="n">
-        <v>396.6885714285714</v>
+        <v>396.69</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -822,10 +822,10 @@
         <v>330.54</v>
       </c>
       <c r="C19" t="n">
-        <v>328.6233333333333</v>
+        <v>328.62</v>
       </c>
       <c r="D19" t="n">
-        <v>400.3428571428572</v>
+        <v>400.34</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -841,10 +841,10 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>318.4433333333333</v>
+        <v>318.44</v>
       </c>
       <c r="D20" t="n">
-        <v>404.1414285714285</v>
+        <v>404.14</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         <v>303.67</v>
       </c>
       <c r="C21" t="n">
-        <v>312.5366666666667</v>
+        <v>312.54</v>
       </c>
       <c r="D21" t="n">
-        <v>391.2542857142857</v>
+        <v>391.25</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -883,10 +883,10 @@
         <v>308.83</v>
       </c>
       <c r="C22" t="n">
-        <v>308.9266666666667</v>
+        <v>308.93</v>
       </c>
       <c r="D22" t="n">
-        <v>360.0871428571429</v>
+        <v>360.09</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -904,10 +904,10 @@
         <v>325.76</v>
       </c>
       <c r="C23" t="n">
-        <v>323.5233333333334</v>
+        <v>323.52</v>
       </c>
       <c r="D23" t="n">
-        <v>404.8785714285714</v>
+        <v>404.88</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>326.42</v>
       </c>
       <c r="C24" t="n">
-        <v>327.6066666666667</v>
+        <v>327.61</v>
       </c>
       <c r="D24" t="n">
         <v>379.82</v>
@@ -946,10 +946,10 @@
         <v>327.37</v>
       </c>
       <c r="C25" t="n">
-        <v>318.8033333333333</v>
+        <v>318.8</v>
       </c>
       <c r="D25" t="n">
-        <v>392.6371428571428</v>
+        <v>392.64</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>327.22</v>
       </c>
       <c r="C28" t="n">
-        <v>326.5066666666667</v>
+        <v>326.51</v>
       </c>
       <c r="D28" t="n">
         <v>393.44</v>
@@ -1041,10 +1041,10 @@
         <v>335.36</v>
       </c>
       <c r="C30" t="n">
-        <v>339.7533333333334</v>
+        <v>339.75</v>
       </c>
       <c r="D30" t="n">
-        <v>413.4471428571428</v>
+        <v>413.45</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1062,10 +1062,10 @@
         <v>351.26</v>
       </c>
       <c r="C31" t="n">
-        <v>340.0466666666667</v>
+        <v>340.05</v>
       </c>
       <c r="D31" t="n">
-        <v>400.5242857142857</v>
+        <v>400.52</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1083,10 +1083,10 @@
         <v>337.99</v>
       </c>
       <c r="C32" t="n">
-        <v>335.9833333333333</v>
+        <v>335.98</v>
       </c>
       <c r="D32" t="n">
-        <v>386.7714285714285</v>
+        <v>386.77</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1104,10 +1104,10 @@
         <v>320.34</v>
       </c>
       <c r="C33" t="n">
-        <v>316.1233333333333</v>
+        <v>316.12</v>
       </c>
       <c r="D33" t="n">
-        <v>376.8757142857143</v>
+        <v>376.88</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1125,10 +1125,10 @@
         <v>323.49</v>
       </c>
       <c r="C34" t="n">
-        <v>332.0366666666667</v>
+        <v>332.04</v>
       </c>
       <c r="D34" t="n">
-        <v>394.0857142857143</v>
+        <v>394.09</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>319.83</v>
       </c>
       <c r="D35" t="n">
-        <v>377.4257142857143</v>
+        <v>377.43</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1167,10 +1167,10 @@
         <v>350.45</v>
       </c>
       <c r="C36" t="n">
-        <v>345.6066666666666</v>
+        <v>345.61</v>
       </c>
       <c r="D36" t="n">
-        <v>398.1285714285714</v>
+        <v>398.13</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1188,10 +1188,10 @@
         <v>332.15</v>
       </c>
       <c r="C37" t="n">
-        <v>334.1266666666667</v>
+        <v>334.13</v>
       </c>
       <c r="D37" t="n">
-        <v>387.2814285714285</v>
+        <v>387.28</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>351.8457142857143</v>
+        <v>351.85</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         <v>335.38</v>
       </c>
       <c r="C39" t="n">
-        <v>330.5066666666667</v>
+        <v>330.51</v>
       </c>
       <c r="D39" t="n">
         <v>387.52</v>
@@ -1252,7 +1252,7 @@
         <v>355.93</v>
       </c>
       <c r="D40" t="n">
-        <v>406.1442857142857</v>
+        <v>406.14</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1270,10 +1270,10 @@
         <v>349.49</v>
       </c>
       <c r="C41" t="n">
-        <v>346.8933333333333</v>
+        <v>346.89</v>
       </c>
       <c r="D41" t="n">
-        <v>409.4885714285714</v>
+        <v>409.49</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1291,10 +1291,10 @@
         <v>331.47</v>
       </c>
       <c r="C42" t="n">
-        <v>340.8966666666666</v>
+        <v>340.9</v>
       </c>
       <c r="D42" t="n">
-        <v>397.5671428571428</v>
+        <v>397.57</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>378.4585714285714</v>
+        <v>378.46</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1329,10 +1329,10 @@
         <v>351.82</v>
       </c>
       <c r="C44" t="n">
-        <v>347.7433333333333</v>
+        <v>347.74</v>
       </c>
       <c r="D44" t="n">
-        <v>401.3785714285714</v>
+        <v>401.38</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1371,10 +1371,10 @@
         <v>353.78</v>
       </c>
       <c r="C46" t="n">
-        <v>347.2266666666667</v>
+        <v>347.23</v>
       </c>
       <c r="D46" t="n">
-        <v>398.5514285714286</v>
+        <v>398.55</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1392,10 +1392,10 @@
         <v>336.65</v>
       </c>
       <c r="C47" t="n">
-        <v>338.6533333333334</v>
+        <v>338.65</v>
       </c>
       <c r="D47" t="n">
-        <v>391.0328571428572</v>
+        <v>391.03</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>366.87</v>
       </c>
       <c r="D48" t="n">
-        <v>414.8557142857143</v>
+        <v>414.86</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1434,10 +1434,10 @@
         <v>359.4</v>
       </c>
       <c r="C49" t="n">
-        <v>351.6133333333333</v>
+        <v>351.61</v>
       </c>
       <c r="D49" t="n">
-        <v>396.7357142857143</v>
+        <v>396.74</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1455,10 +1455,10 @@
         <v>328.7</v>
       </c>
       <c r="C50" t="n">
-        <v>329.2066666666666</v>
+        <v>329.21</v>
       </c>
       <c r="D50" t="n">
-        <v>361.8957142857143</v>
+        <v>361.9</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         <v>366.88</v>
       </c>
       <c r="C51" t="n">
-        <v>366.3733333333333</v>
+        <v>366.37</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
@@ -1498,7 +1498,7 @@
         <v>350.06</v>
       </c>
       <c r="D52" t="n">
-        <v>363.8885714285714</v>
+        <v>363.89</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>334.29</v>
       </c>
       <c r="D53" t="n">
-        <v>405.3342857142857</v>
+        <v>405.33</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>341.91</v>
       </c>
       <c r="D54" t="n">
-        <v>392.5342857142857</v>
+        <v>392.53</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1556,10 +1556,10 @@
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>348.2666666666667</v>
+        <v>348.27</v>
       </c>
       <c r="D55" t="n">
-        <v>410.5428571428571</v>
+        <v>410.54</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1577,10 +1577,10 @@
         <v>353.31</v>
       </c>
       <c r="C56" t="n">
-        <v>340.4933333333333</v>
+        <v>340.49</v>
       </c>
       <c r="D56" t="n">
-        <v>384.3614285714286</v>
+        <v>384.36</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1598,10 +1598,10 @@
         <v>364.24</v>
       </c>
       <c r="C57" t="n">
-        <v>370.8533333333334</v>
+        <v>370.85</v>
       </c>
       <c r="D57" t="n">
-        <v>388.0142857142857</v>
+        <v>388.01</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         <v>343.14</v>
       </c>
       <c r="D58" t="n">
-        <v>390.8214285714286</v>
+        <v>390.82</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1640,10 +1640,10 @@
         <v>339.37</v>
       </c>
       <c r="C59" t="n">
-        <v>357.7133333333334</v>
+        <v>357.71</v>
       </c>
       <c r="D59" t="n">
-        <v>405.0242857142857</v>
+        <v>405.02</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>342.61</v>
       </c>
       <c r="C60" t="n">
-        <v>345.6766666666667</v>
+        <v>345.68</v>
       </c>
       <c r="D60" t="n">
         <v>386.09</v>
@@ -1682,10 +1682,10 @@
         <v>364.55</v>
       </c>
       <c r="C61" t="n">
-        <v>348.2066666666666</v>
+        <v>348.21</v>
       </c>
       <c r="D61" t="n">
-        <v>391.6714285714286</v>
+        <v>391.67</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
         <v>381.79</v>
       </c>
       <c r="C62" t="n">
-        <v>361.6466666666666</v>
+        <v>361.65</v>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
@@ -1722,10 +1722,10 @@
         <v>323.09</v>
       </c>
       <c r="C63" t="n">
-        <v>344.4733333333334</v>
+        <v>344.47</v>
       </c>
       <c r="D63" t="n">
-        <v>358.2771428571428</v>
+        <v>358.28</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>360.56</v>
       </c>
       <c r="C64" t="n">
-        <v>359.2866666666666</v>
+        <v>359.29</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
@@ -1762,10 +1762,10 @@
         <v>369.76</v>
       </c>
       <c r="C65" t="n">
-        <v>356.6933333333333</v>
+        <v>356.69</v>
       </c>
       <c r="D65" t="n">
-        <v>412.3414285714285</v>
+        <v>412.34</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1800,10 +1800,10 @@
         <v>354.58</v>
       </c>
       <c r="C67" t="n">
-        <v>357.8933333333334</v>
+        <v>357.89</v>
       </c>
       <c r="D67" t="n">
-        <v>396.5428571428571</v>
+        <v>396.54</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1821,10 +1821,10 @@
         <v>351.6</v>
       </c>
       <c r="C68" t="n">
-        <v>355.2966666666667</v>
+        <v>355.3</v>
       </c>
       <c r="D68" t="n">
-        <v>404.7942857142857</v>
+        <v>404.79</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>366.82</v>
       </c>
       <c r="C69" t="n">
-        <v>377.2733333333333</v>
+        <v>377.27</v>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
@@ -1861,10 +1861,10 @@
         <v>362.38</v>
       </c>
       <c r="C70" t="n">
-        <v>361.2266666666666</v>
+        <v>361.23</v>
       </c>
       <c r="D70" t="n">
-        <v>364.7585714285714</v>
+        <v>364.76</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1882,10 +1882,10 @@
         <v>363.84</v>
       </c>
       <c r="C71" t="n">
-        <v>362.7433333333333</v>
+        <v>362.74</v>
       </c>
       <c r="D71" t="n">
-        <v>392.8014285714286</v>
+        <v>392.8</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
-        <v>391.2985714285714</v>
+        <v>391.3</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -1920,10 +1920,10 @@
         <v>395.95</v>
       </c>
       <c r="C73" t="n">
-        <v>390.0266666666667</v>
+        <v>390.03</v>
       </c>
       <c r="D73" t="n">
-        <v>423.9414285714286</v>
+        <v>423.94</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -1962,10 +1962,10 @@
         <v>365.96</v>
       </c>
       <c r="C75" t="n">
-        <v>376.0633333333333</v>
+        <v>376.06</v>
       </c>
       <c r="D75" t="n">
-        <v>387.6528571428572</v>
+        <v>387.65</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>314.9</v>
       </c>
       <c r="C76" t="n">
-        <v>308.8133333333333</v>
+        <v>308.81</v>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>318.0466666666667</v>
+        <v>318.05</v>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
@@ -2017,10 +2017,10 @@
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>343.2566666666667</v>
+        <v>343.26</v>
       </c>
       <c r="D78" t="n">
-        <v>384.0814285714285</v>
+        <v>384.08</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>328.83</v>
       </c>
       <c r="D79" t="n">
-        <v>342.6214285714286</v>
+        <v>342.62</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2059,10 +2059,10 @@
         <v>343.04</v>
       </c>
       <c r="C80" t="n">
-        <v>340.9966666666667</v>
+        <v>341</v>
       </c>
       <c r="D80" t="n">
-        <v>378.1228571428572</v>
+        <v>378.12</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         <v>358.47</v>
       </c>
       <c r="C81" t="n">
-        <v>365.4366666666667</v>
+        <v>365.44</v>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
@@ -2102,7 +2102,7 @@
         <v>357.78</v>
       </c>
       <c r="D82" t="n">
-        <v>389.1314285714286</v>
+        <v>389.13</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>348.21</v>
       </c>
       <c r="C83" t="n">
-        <v>347.6866666666667</v>
+        <v>347.69</v>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
@@ -2139,10 +2139,10 @@
         <v>351.77</v>
       </c>
       <c r="C84" t="n">
-        <v>346.5466666666667</v>
+        <v>346.55</v>
       </c>
       <c r="D84" t="n">
-        <v>397.1557142857143</v>
+        <v>397.16</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2160,10 +2160,10 @@
         <v>370.22</v>
       </c>
       <c r="C85" t="n">
-        <v>359.6066666666667</v>
+        <v>359.61</v>
       </c>
       <c r="D85" t="n">
-        <v>405.9457142857143</v>
+        <v>405.95</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2181,10 +2181,10 @@
         <v>347.76</v>
       </c>
       <c r="C86" t="n">
-        <v>364.4366666666667</v>
+        <v>364.44</v>
       </c>
       <c r="D86" t="n">
-        <v>399.6757142857143</v>
+        <v>399.68</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>351.46</v>
       </c>
       <c r="D87" t="n">
-        <v>399.9685714285715</v>
+        <v>399.97</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>333.04</v>
       </c>
       <c r="C88" t="n">
-        <v>342.0766666666667</v>
+        <v>342.08</v>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
@@ -2263,10 +2263,10 @@
         <v>330.24</v>
       </c>
       <c r="C90" t="n">
-        <v>329.3833333333334</v>
+        <v>329.38</v>
       </c>
       <c r="D90" t="n">
-        <v>387.6928571428572</v>
+        <v>387.69</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2282,10 +2282,10 @@
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="n">
-        <v>347.9866666666667</v>
+        <v>347.99</v>
       </c>
       <c r="D91" t="n">
-        <v>365.7042857142857</v>
+        <v>365.7</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>339.7266666666666</v>
+        <v>339.73</v>
       </c>
       <c r="D93" t="n">
         <v>376.45</v>
@@ -2339,10 +2339,10 @@
         <v>344.26</v>
       </c>
       <c r="C94" t="n">
-        <v>346.0966666666667</v>
+        <v>346.1</v>
       </c>
       <c r="D94" t="n">
-        <v>404.1971428571428</v>
+        <v>404.2</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>335.83</v>
       </c>
       <c r="C95" t="n">
-        <v>328.3233333333333</v>
+        <v>328.32</v>
       </c>
       <c r="D95" t="n">
         <v>371.96</v>
@@ -2403,7 +2403,7 @@
         <v>351.55</v>
       </c>
       <c r="D97" t="n">
-        <v>383.2314285714286</v>
+        <v>383.23</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2438,10 +2438,10 @@
         <v>346.07</v>
       </c>
       <c r="C99" t="n">
-        <v>346.9966666666667</v>
+        <v>347</v>
       </c>
       <c r="D99" t="n">
-        <v>397.2957142857143</v>
+        <v>397.3</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2459,7 +2459,7 @@
         <v>363.96</v>
       </c>
       <c r="C100" t="n">
-        <v>354.1233333333333</v>
+        <v>354.12</v>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
@@ -2481,7 +2481,7 @@
         <v>349.34</v>
       </c>
       <c r="D101" t="n">
-        <v>384.9528571428572</v>
+        <v>384.95</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2499,10 +2499,10 @@
         <v>355.94</v>
       </c>
       <c r="C102" t="n">
-        <v>353.8366666666666</v>
+        <v>353.84</v>
       </c>
       <c r="D102" t="n">
-        <v>405.3914285714285</v>
+        <v>405.39</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2520,10 +2520,10 @@
         <v>347.78</v>
       </c>
       <c r="C103" t="n">
-        <v>343.6466666666666</v>
+        <v>343.65</v>
       </c>
       <c r="D103" t="n">
-        <v>389.9871428571428</v>
+        <v>389.99</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2541,10 +2541,10 @@
         <v>341.14</v>
       </c>
       <c r="C104" t="n">
-        <v>347.8133333333333</v>
+        <v>347.81</v>
       </c>
       <c r="D104" t="n">
-        <v>391.3471428571429</v>
+        <v>391.35</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2562,10 +2562,10 @@
         <v>319.11</v>
       </c>
       <c r="C105" t="n">
-        <v>323.4633333333333</v>
+        <v>323.46</v>
       </c>
       <c r="D105" t="n">
-        <v>375.5414285714286</v>
+        <v>375.54</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2621,10 +2621,10 @@
         <v>327.05</v>
       </c>
       <c r="C108" t="n">
-        <v>341.6266666666667</v>
+        <v>341.63</v>
       </c>
       <c r="D108" t="n">
-        <v>387.9371428571428</v>
+        <v>387.94</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2642,10 +2642,10 @@
         <v>343.45</v>
       </c>
       <c r="C109" t="n">
-        <v>345.2566666666667</v>
+        <v>345.26</v>
       </c>
       <c r="D109" t="n">
-        <v>398.7514285714286</v>
+        <v>398.75</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         <v>319.65</v>
       </c>
       <c r="D110" t="n">
-        <v>370.5614285714286</v>
+        <v>370.56</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2703,10 +2703,10 @@
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="n">
-        <v>332.9833333333333</v>
+        <v>332.98</v>
       </c>
       <c r="D112" t="n">
-        <v>382.7057142857143</v>
+        <v>382.71</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2724,10 +2724,10 @@
         <v>344.63</v>
       </c>
       <c r="C113" t="n">
-        <v>347.1633333333333</v>
+        <v>347.16</v>
       </c>
       <c r="D113" t="n">
-        <v>386.1614285714285</v>
+        <v>386.16</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2745,10 +2745,10 @@
         <v>321.05</v>
       </c>
       <c r="C114" t="n">
-        <v>327.1966666666667</v>
+        <v>327.2</v>
       </c>
       <c r="D114" t="n">
-        <v>385.4128571428572</v>
+        <v>385.41</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2766,10 +2766,10 @@
         <v>333.49</v>
       </c>
       <c r="C115" t="n">
-        <v>329.1766666666667</v>
+        <v>329.18</v>
       </c>
       <c r="D115" t="n">
-        <v>386.7071428571429</v>
+        <v>386.71</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2787,10 +2787,10 @@
         <v>347.7</v>
       </c>
       <c r="C116" t="n">
-        <v>359.7833333333333</v>
+        <v>359.78</v>
       </c>
       <c r="D116" t="n">
-        <v>398.5957142857143</v>
+        <v>398.6</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2825,10 +2825,10 @@
         <v>351.01</v>
       </c>
       <c r="C118" t="n">
-        <v>349.2633333333333</v>
+        <v>349.26</v>
       </c>
       <c r="D118" t="n">
-        <v>402.8271428571429</v>
+        <v>402.83</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>344.15</v>
       </c>
       <c r="C119" t="n">
-        <v>334.7866666666667</v>
+        <v>334.79</v>
       </c>
       <c r="D119" t="n">
         <v>383.18</v>
@@ -2886,10 +2886,10 @@
         <v>317.76</v>
       </c>
       <c r="C121" t="n">
-        <v>321.2933333333333</v>
+        <v>321.29</v>
       </c>
       <c r="D121" t="n">
-        <v>385.9585714285714</v>
+        <v>385.96</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>330.22</v>
       </c>
       <c r="D122" t="n">
-        <v>375.2171428571429</v>
+        <v>375.22</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -2945,10 +2945,10 @@
         <v>350.39</v>
       </c>
       <c r="C124" t="n">
-        <v>338.6366666666667</v>
+        <v>338.64</v>
       </c>
       <c r="D124" t="n">
-        <v>395.1514285714285</v>
+        <v>395.15</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -2966,10 +2966,10 @@
         <v>343.37</v>
       </c>
       <c r="C125" t="n">
-        <v>338.9166666666667</v>
+        <v>338.92</v>
       </c>
       <c r="D125" t="n">
-        <v>390.7657142857143</v>
+        <v>390.77</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>345.84</v>
       </c>
       <c r="D126" t="n">
-        <v>410.3742857142857</v>
+        <v>410.37</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3008,10 +3008,10 @@
         <v>351.94</v>
       </c>
       <c r="C127" t="n">
-        <v>346.5633333333333</v>
+        <v>346.56</v>
       </c>
       <c r="D127" t="n">
-        <v>397.6557142857143</v>
+        <v>397.66</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3029,10 +3029,10 @@
         <v>329.93</v>
       </c>
       <c r="C128" t="n">
-        <v>336.1633333333334</v>
+        <v>336.16</v>
       </c>
       <c r="D128" t="n">
-        <v>385.1471428571429</v>
+        <v>385.15</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>354.67</v>
       </c>
       <c r="D129" t="n">
-        <v>404.1614285714285</v>
+        <v>404.16</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="n">
-        <v>384.4485714285714</v>
+        <v>384.45</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>338.96</v>
       </c>
       <c r="C131" t="n">
-        <v>344.3733333333333</v>
+        <v>344.37</v>
       </c>
       <c r="D131" t="n">
         <v>400.52</v>
@@ -3109,10 +3109,10 @@
         <v>337.67</v>
       </c>
       <c r="C132" t="n">
-        <v>338.5933333333333</v>
+        <v>338.59</v>
       </c>
       <c r="D132" t="n">
-        <v>397.9657142857143</v>
+        <v>397.97</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3133,7 +3133,7 @@
         <v>322.83</v>
       </c>
       <c r="D133" t="n">
-        <v>385.4857142857143</v>
+        <v>385.49</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3151,7 +3151,7 @@
         <v>326.5</v>
       </c>
       <c r="C134" t="n">
-        <v>326.7033333333334</v>
+        <v>326.7</v>
       </c>
       <c r="D134" t="n">
         <v>383.06</v>
@@ -3172,7 +3172,7 @@
         <v>327.33</v>
       </c>
       <c r="C135" t="n">
-        <v>328.3166666666667</v>
+        <v>328.32</v>
       </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
@@ -3191,7 +3191,7 @@
         <v>337.56</v>
       </c>
       <c r="C136" t="n">
-        <v>338.8766666666667</v>
+        <v>338.88</v>
       </c>
       <c r="D136" t="n">
         <v>384.86</v>
@@ -3212,10 +3212,10 @@
         <v>358.1</v>
       </c>
       <c r="C137" t="n">
-        <v>348.7866666666666</v>
+        <v>348.79</v>
       </c>
       <c r="D137" t="n">
-        <v>408.1328571428572</v>
+        <v>408.13</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>344.68</v>
       </c>
       <c r="D138" t="n">
-        <v>388.3428571428572</v>
+        <v>388.34</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3254,10 +3254,10 @@
         <v>341.18</v>
       </c>
       <c r="C139" t="n">
-        <v>346.8233333333333</v>
+        <v>346.82</v>
       </c>
       <c r="D139" t="n">
-        <v>360.7657142857143</v>
+        <v>360.77</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>356.46</v>
       </c>
       <c r="C140" t="n">
-        <v>345.8766666666667</v>
+        <v>345.88</v>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="n">
-        <v>334.4333333333333</v>
+        <v>334.43</v>
       </c>
       <c r="D141" t="n">
         <v>385.46</v>
@@ -3313,10 +3313,10 @@
         <v>353.72</v>
       </c>
       <c r="C142" t="n">
-        <v>344.1633333333334</v>
+        <v>344.16</v>
       </c>
       <c r="D142" t="n">
-        <v>356.1485714285715</v>
+        <v>356.15</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3334,10 +3334,10 @@
         <v>360.05</v>
       </c>
       <c r="C143" t="n">
-        <v>341.2266666666667</v>
+        <v>341.23</v>
       </c>
       <c r="D143" t="n">
-        <v>386.0528571428572</v>
+        <v>386.05</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3355,10 +3355,10 @@
         <v>331.38</v>
       </c>
       <c r="C144" t="n">
-        <v>333.2166666666666</v>
+        <v>333.22</v>
       </c>
       <c r="D144" t="n">
-        <v>371.3714285714286</v>
+        <v>371.37</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3376,10 +3376,10 @@
         <v>324.33</v>
       </c>
       <c r="C145" t="n">
-        <v>325.6066666666667</v>
+        <v>325.61</v>
       </c>
       <c r="D145" t="n">
-        <v>385.1457142857143</v>
+        <v>385.15</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3397,10 +3397,10 @@
         <v>316.74</v>
       </c>
       <c r="C146" t="n">
-        <v>319.5666666666667</v>
+        <v>319.57</v>
       </c>
       <c r="D146" t="n">
-        <v>381.4242857142857</v>
+        <v>381.42</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -3418,10 +3418,10 @@
         <v>334.51</v>
       </c>
       <c r="C147" t="n">
-        <v>338.8133333333333</v>
+        <v>338.81</v>
       </c>
       <c r="D147" t="n">
-        <v>397.5114285714286</v>
+        <v>397.51</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         <v>352.5</v>
       </c>
       <c r="C148" t="n">
-        <v>344.9933333333333</v>
+        <v>344.99</v>
       </c>
       <c r="D148" t="n">
         <v>392.33</v>
@@ -3479,10 +3479,10 @@
         <v>317.54</v>
       </c>
       <c r="C150" t="n">
-        <v>321.8866666666667</v>
+        <v>321.89</v>
       </c>
       <c r="D150" t="n">
-        <v>393.9985714285714</v>
+        <v>394</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3500,10 +3500,10 @@
         <v>312.76</v>
       </c>
       <c r="C151" t="n">
-        <v>322.5666666666667</v>
+        <v>322.57</v>
       </c>
       <c r="D151" t="n">
-        <v>395.2414285714286</v>
+        <v>395.24</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>312.16</v>
       </c>
       <c r="C152" t="n">
-        <v>316.2433333333333</v>
+        <v>316.24</v>
       </c>
       <c r="D152" t="n">
         <v>394.6</v>
@@ -3542,10 +3542,10 @@
         <v>319.99</v>
       </c>
       <c r="C153" t="n">
-        <v>319.2233333333334</v>
+        <v>319.22</v>
       </c>
       <c r="D153" t="n">
-        <v>407.6957142857143</v>
+        <v>407.7</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3563,10 +3563,10 @@
         <v>345.49</v>
       </c>
       <c r="C154" t="n">
-        <v>330.9033333333334</v>
+        <v>330.9</v>
       </c>
       <c r="D154" t="n">
-        <v>390.9485714285714</v>
+        <v>390.95</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
         <v>320.33</v>
       </c>
       <c r="D155" t="n">
-        <v>404.3728571428572</v>
+        <v>404.37</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>324.71</v>
       </c>
       <c r="C156" t="n">
-        <v>326.7166666666667</v>
+        <v>326.72</v>
       </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
@@ -3622,7 +3622,7 @@
         <v>324.63</v>
       </c>
       <c r="C157" t="n">
-        <v>321.7633333333334</v>
+        <v>321.76</v>
       </c>
       <c r="D157" t="n">
         <v>401.37</v>
@@ -3643,7 +3643,7 @@
         <v>316.61</v>
       </c>
       <c r="C158" t="n">
-        <v>317.2866666666667</v>
+        <v>317.29</v>
       </c>
       <c r="D158" t="n">
         <v>386.4</v>
@@ -3664,10 +3664,10 @@
         <v>319.93</v>
       </c>
       <c r="C159" t="n">
-        <v>327.2866666666667</v>
+        <v>327.29</v>
       </c>
       <c r="D159" t="n">
-        <v>391.8585714285715</v>
+        <v>391.86</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -3685,10 +3685,10 @@
         <v>329.22</v>
       </c>
       <c r="C160" t="n">
-        <v>326.3433333333333</v>
+        <v>326.34</v>
       </c>
       <c r="D160" t="n">
-        <v>397.6614285714285</v>
+        <v>397.66</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -3706,10 +3706,10 @@
         <v>324.07</v>
       </c>
       <c r="C161" t="n">
-        <v>334.7366666666667</v>
+        <v>334.74</v>
       </c>
       <c r="D161" t="n">
-        <v>404.6857142857143</v>
+        <v>404.69</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -3727,10 +3727,10 @@
         <v>344.9</v>
       </c>
       <c r="C162" t="n">
-        <v>337.1766666666667</v>
+        <v>337.18</v>
       </c>
       <c r="D162" t="n">
-        <v>398.8914285714285</v>
+        <v>398.89</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -3748,10 +3748,10 @@
         <v>335.04</v>
       </c>
       <c r="C163" t="n">
-        <v>350.6833333333333</v>
+        <v>350.68</v>
       </c>
       <c r="D163" t="n">
-        <v>401.8185714285714</v>
+        <v>401.82</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>332.34</v>
       </c>
       <c r="C164" t="n">
-        <v>336.4566666666667</v>
+        <v>336.46</v>
       </c>
       <c r="D164" t="n">
         <v>404.71</v>
@@ -3789,7 +3789,7 @@
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="n">
-        <v>413.1242857142857</v>
+        <v>413.12</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>319.45</v>
       </c>
       <c r="C166" t="n">
-        <v>320.7633333333333</v>
+        <v>320.76</v>
       </c>
       <c r="D166" t="n">
         <v>398.2</v>
@@ -3870,10 +3870,10 @@
         <v>311.62</v>
       </c>
       <c r="C169" t="n">
-        <v>310.3833333333333</v>
+        <v>310.38</v>
       </c>
       <c r="D169" t="n">
-        <v>367.8742857142857</v>
+        <v>367.87</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -3891,10 +3891,10 @@
         <v>323.74</v>
       </c>
       <c r="C170" t="n">
-        <v>324.9066666666666</v>
+        <v>324.91</v>
       </c>
       <c r="D170" t="n">
-        <v>384.6014285714285</v>
+        <v>384.6</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>327.58</v>
       </c>
       <c r="D171" t="n">
-        <v>408.2042857142857</v>
+        <v>408.2</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -3933,10 +3933,10 @@
         <v>321.76</v>
       </c>
       <c r="C172" t="n">
-        <v>313.1133333333333</v>
+        <v>313.11</v>
       </c>
       <c r="D172" t="n">
-        <v>389.0571428571428</v>
+        <v>389.06</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>322.78</v>
       </c>
       <c r="C173" t="n">
-        <v>325.6033333333333</v>
+        <v>325.6</v>
       </c>
       <c r="D173" t="n">
         <v>394.63</v>
@@ -3975,10 +3975,10 @@
         <v>349.87</v>
       </c>
       <c r="C174" t="n">
-        <v>334.4333333333333</v>
+        <v>334.43</v>
       </c>
       <c r="D174" t="n">
-        <v>411.9914285714286</v>
+        <v>411.99</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>343.35</v>
       </c>
       <c r="C175" t="n">
-        <v>330.5333333333334</v>
+        <v>330.53</v>
       </c>
       <c r="D175" t="n">
         <v>416.7</v>
@@ -4017,10 +4017,10 @@
         <v>328.32</v>
       </c>
       <c r="C176" t="n">
-        <v>329.7133333333333</v>
+        <v>329.71</v>
       </c>
       <c r="D176" t="n">
-        <v>399.8928571428572</v>
+        <v>399.89</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -4038,10 +4038,10 @@
         <v>308.24</v>
       </c>
       <c r="C177" t="n">
-        <v>308.7966666666666</v>
+        <v>308.8</v>
       </c>
       <c r="D177" t="n">
-        <v>390.6057142857143</v>
+        <v>390.61</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -4059,10 +4059,10 @@
         <v>316.96</v>
       </c>
       <c r="C178" t="n">
-        <v>325.0033333333333</v>
+        <v>325</v>
       </c>
       <c r="D178" t="n">
-        <v>384.1285714285714</v>
+        <v>384.13</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         <v>319.02</v>
       </c>
       <c r="D179" t="n">
-        <v>393.2271428571429</v>
+        <v>393.23</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         <v>322.33</v>
       </c>
       <c r="C180" t="n">
-        <v>320.2833333333334</v>
+        <v>320.28</v>
       </c>
       <c r="D180" t="n">
         <v>402.76</v>
@@ -4125,7 +4125,7 @@
         <v>330.7</v>
       </c>
       <c r="D181" t="n">
-        <v>400.9628571428572</v>
+        <v>400.96</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>321.27</v>
       </c>
       <c r="C182" t="n">
-        <v>318.8366666666667</v>
+        <v>318.84</v>
       </c>
       <c r="D182" t="n">
         <v>392.08</v>
@@ -4167,7 +4167,7 @@
         <v>324.8</v>
       </c>
       <c r="D183" t="n">
-        <v>392.0528571428572</v>
+        <v>392.05</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -4185,10 +4185,10 @@
         <v>362.02</v>
       </c>
       <c r="C184" t="n">
-        <v>338.0966666666666</v>
+        <v>338.1</v>
       </c>
       <c r="D184" t="n">
-        <v>400.5085714285714</v>
+        <v>400.51</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
         <v>329.21</v>
       </c>
       <c r="D185" t="n">
-        <v>390.1785714285714</v>
+        <v>390.18</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -4227,10 +4227,10 @@
         <v>346.56</v>
       </c>
       <c r="C186" t="n">
-        <v>333.8033333333333</v>
+        <v>333.8</v>
       </c>
       <c r="D186" t="n">
-        <v>399.0742857142857</v>
+        <v>399.07</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -4248,10 +4248,10 @@
         <v>343.71</v>
       </c>
       <c r="C187" t="n">
-        <v>330.6766666666667</v>
+        <v>330.68</v>
       </c>
       <c r="D187" t="n">
-        <v>386.7114285714285</v>
+        <v>386.71</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -4269,10 +4269,10 @@
         <v>320.98</v>
       </c>
       <c r="C188" t="n">
-        <v>320.7866666666667</v>
+        <v>320.79</v>
       </c>
       <c r="D188" t="n">
-        <v>373.3942857142857</v>
+        <v>373.39</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>329.96</v>
       </c>
       <c r="D189" t="n">
-        <v>388.4071428571429</v>
+        <v>388.41</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>335.09</v>
       </c>
       <c r="C190" t="n">
-        <v>342.7266666666666</v>
+        <v>342.73</v>
       </c>
       <c r="D190" t="n">
         <v>408.2</v>
@@ -4331,7 +4331,7 @@
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="n">
-        <v>380.4557142857143</v>
+        <v>380.46</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -4368,10 +4368,10 @@
         <v>329.07</v>
       </c>
       <c r="C193" t="n">
-        <v>331.7933333333333</v>
+        <v>331.79</v>
       </c>
       <c r="D193" t="n">
-        <v>407.5171428571429</v>
+        <v>407.52</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>326.08</v>
       </c>
       <c r="D195" t="n">
-        <v>383.8285714285714</v>
+        <v>383.83</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -4431,10 +4431,10 @@
         <v>341.25</v>
       </c>
       <c r="C196" t="n">
-        <v>344.6533333333333</v>
+        <v>344.65</v>
       </c>
       <c r="D196" t="n">
-        <v>415.9642857142857</v>
+        <v>415.96</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         <v>337.81</v>
       </c>
       <c r="D198" t="n">
-        <v>420.8885714285714</v>
+        <v>420.89</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>341.14</v>
       </c>
       <c r="D199" t="n">
-        <v>422.7171428571429</v>
+        <v>422.72</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -4515,10 +4515,10 @@
         <v>317.75</v>
       </c>
       <c r="C200" t="n">
-        <v>324.6033333333333</v>
+        <v>324.6</v>
       </c>
       <c r="D200" t="n">
-        <v>395.9614285714285</v>
+        <v>395.96</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -4534,10 +4534,10 @@
       </c>
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="n">
-        <v>337.7266666666666</v>
+        <v>337.73</v>
       </c>
       <c r="D201" t="n">
-        <v>404.0614285714286</v>
+        <v>404.06</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -4553,10 +4553,10 @@
       </c>
       <c r="B202" t="inlineStr"/>
       <c r="C202" t="n">
-        <v>334.7266666666667</v>
+        <v>334.73</v>
       </c>
       <c r="D202" t="n">
-        <v>375.3971428571429</v>
+        <v>375.4</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -4574,10 +4574,10 @@
         <v>342.85</v>
       </c>
       <c r="C203" t="n">
-        <v>353.1466666666666</v>
+        <v>353.15</v>
       </c>
       <c r="D203" t="n">
-        <v>412.6457142857143</v>
+        <v>412.65</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         <v>346.03</v>
       </c>
       <c r="D204" t="n">
-        <v>392.3871428571428</v>
+        <v>392.39</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -4614,10 +4614,10 @@
         <v>337.28</v>
       </c>
       <c r="C205" t="n">
-        <v>338.5833333333333</v>
+        <v>338.58</v>
       </c>
       <c r="D205" t="n">
-        <v>390.6814285714286</v>
+        <v>390.68</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>344.07</v>
       </c>
       <c r="C207" t="n">
-        <v>342.4066666666666</v>
+        <v>342.41</v>
       </c>
       <c r="D207" t="n">
         <v>395.96</v>
@@ -4677,7 +4677,7 @@
         <v>329.31</v>
       </c>
       <c r="C208" t="n">
-        <v>326.6566666666666</v>
+        <v>326.66</v>
       </c>
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
@@ -4696,10 +4696,10 @@
         <v>331.74</v>
       </c>
       <c r="C209" t="n">
-        <v>334.4333333333333</v>
+        <v>334.43</v>
       </c>
       <c r="D209" t="n">
-        <v>394.0614285714286</v>
+        <v>394.06</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -4715,10 +4715,10 @@
       </c>
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="n">
-        <v>331.6333333333333</v>
+        <v>331.63</v>
       </c>
       <c r="D210" t="n">
-        <v>384.7128571428572</v>
+        <v>384.71</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
       <c r="B211" t="inlineStr"/>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="n">
-        <v>394.7671428571429</v>
+        <v>394.77</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -4753,10 +4753,10 @@
         <v>334.14</v>
       </c>
       <c r="C212" t="n">
-        <v>337.8166666666667</v>
+        <v>337.82</v>
       </c>
       <c r="D212" t="n">
-        <v>384.7885714285715</v>
+        <v>384.79</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         <v>359.44</v>
       </c>
       <c r="C213" t="n">
-        <v>355.2166666666666</v>
+        <v>355.22</v>
       </c>
       <c r="D213" t="n">
         <v>400.59</v>
@@ -4795,7 +4795,7 @@
         <v>343.4</v>
       </c>
       <c r="C214" t="n">
-        <v>348.8633333333333</v>
+        <v>348.86</v>
       </c>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
@@ -4814,10 +4814,10 @@
         <v>360.85</v>
       </c>
       <c r="C215" t="n">
-        <v>353.7566666666667</v>
+        <v>353.76</v>
       </c>
       <c r="D215" t="n">
-        <v>413.9128571428572</v>
+        <v>413.91</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -4835,10 +4835,10 @@
         <v>326.18</v>
       </c>
       <c r="C216" t="n">
-        <v>337.1266666666667</v>
+        <v>337.13</v>
       </c>
       <c r="D216" t="n">
-        <v>383.9985714285714</v>
+        <v>384</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>328.83</v>
       </c>
       <c r="D217" t="n">
-        <v>389.1528571428572</v>
+        <v>389.15</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         <v>345.97</v>
       </c>
       <c r="D218" t="n">
-        <v>398.5514285714286</v>
+        <v>398.55</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -4915,10 +4915,10 @@
         <v>355.01</v>
       </c>
       <c r="C220" t="n">
-        <v>345.0166666666667</v>
+        <v>345.02</v>
       </c>
       <c r="D220" t="n">
-        <v>360.9114285714285</v>
+        <v>360.91</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -4936,10 +4936,10 @@
         <v>349.56</v>
       </c>
       <c r="C221" t="n">
-        <v>345.4233333333333</v>
+        <v>345.42</v>
       </c>
       <c r="D221" t="n">
-        <v>388.0257142857143</v>
+        <v>388.03</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
       <c r="B223" t="inlineStr"/>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="n">
-        <v>419.0742857142857</v>
+        <v>419.07</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -4993,10 +4993,10 @@
         <v>345.47</v>
       </c>
       <c r="C224" t="n">
-        <v>350.6833333333333</v>
+        <v>350.68</v>
       </c>
       <c r="D224" t="n">
-        <v>385.9257142857143</v>
+        <v>385.93</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -5012,10 +5012,10 @@
       </c>
       <c r="B225" t="inlineStr"/>
       <c r="C225" t="n">
-        <v>347.7766666666667</v>
+        <v>347.78</v>
       </c>
       <c r="D225" t="n">
-        <v>398.8428571428572</v>
+        <v>398.84</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>372.4</v>
       </c>
       <c r="C226" t="n">
-        <v>360.6633333333334</v>
+        <v>360.66</v>
       </c>
       <c r="D226" t="n">
         <v>400.89</v>
@@ -5054,10 +5054,10 @@
         <v>344.72</v>
       </c>
       <c r="C227" t="n">
-        <v>348.2666666666667</v>
+        <v>348.27</v>
       </c>
       <c r="D227" t="n">
-        <v>401.8385714285714</v>
+        <v>401.84</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -5073,10 +5073,10 @@
       </c>
       <c r="B228" t="inlineStr"/>
       <c r="C228" t="n">
-        <v>362.5766666666667</v>
+        <v>362.58</v>
       </c>
       <c r="D228" t="n">
-        <v>416.7757142857143</v>
+        <v>416.78</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -5094,10 +5094,10 @@
         <v>357.58</v>
       </c>
       <c r="C229" t="n">
-        <v>351.1033333333333</v>
+        <v>351.1</v>
       </c>
       <c r="D229" t="n">
-        <v>405.2785714285715</v>
+        <v>405.28</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         <v>356.04</v>
       </c>
       <c r="D230" t="n">
-        <v>403.3114285714286</v>
+        <v>403.31</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         <v>357.75</v>
       </c>
       <c r="D231" t="n">
-        <v>401.3242857142857</v>
+        <v>401.32</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -5158,7 +5158,7 @@
         <v>346.84</v>
       </c>
       <c r="D232" t="n">
-        <v>384.8728571428572</v>
+        <v>384.87</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>363.65</v>
       </c>
       <c r="D233" t="n">
-        <v>401.8057142857143</v>
+        <v>401.81</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>378.84</v>
       </c>
       <c r="C234" t="n">
-        <v>362.2633333333333</v>
+        <v>362.26</v>
       </c>
       <c r="D234" t="n">
         <v>411.89</v>
@@ -5218,10 +5218,10 @@
         <v>365.26</v>
       </c>
       <c r="C235" t="n">
-        <v>354.4933333333333</v>
+        <v>354.49</v>
       </c>
       <c r="D235" t="n">
-        <v>392.1857142857143</v>
+        <v>392.19</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -5239,10 +5239,10 @@
         <v>373.39</v>
       </c>
       <c r="C236" t="n">
-        <v>358.9266666666667</v>
+        <v>358.93</v>
       </c>
       <c r="D236" t="n">
-        <v>406.2328571428571</v>
+        <v>406.23</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -5260,10 +5260,10 @@
         <v>377.38</v>
       </c>
       <c r="C237" t="n">
-        <v>367.3566666666667</v>
+        <v>367.36</v>
       </c>
       <c r="D237" t="n">
-        <v>411.8857142857143</v>
+        <v>411.89</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -5281,10 +5281,10 @@
         <v>372.92</v>
       </c>
       <c r="C238" t="n">
-        <v>375.6433333333334</v>
+        <v>375.64</v>
       </c>
       <c r="D238" t="n">
-        <v>423.5285714285715</v>
+        <v>423.53</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -5302,10 +5302,10 @@
         <v>371.87</v>
       </c>
       <c r="C239" t="n">
-        <v>366.2566666666667</v>
+        <v>366.26</v>
       </c>
       <c r="D239" t="n">
-        <v>414.4171428571429</v>
+        <v>414.42</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -5324,7 +5324,7 @@
         <v>360.3</v>
       </c>
       <c r="D240" t="n">
-        <v>415.4228571428571</v>
+        <v>415.42</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -5342,7 +5342,7 @@
         <v>334.42</v>
       </c>
       <c r="C241" t="n">
-        <v>331.9333333333333</v>
+        <v>331.93</v>
       </c>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr">
@@ -5361,10 +5361,10 @@
         <v>346.83</v>
       </c>
       <c r="C242" t="n">
-        <v>369.1633333333333</v>
+        <v>369.16</v>
       </c>
       <c r="D242" t="n">
-        <v>415.2585714285714</v>
+        <v>415.26</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -5382,10 +5382,10 @@
         <v>345.22</v>
       </c>
       <c r="C243" t="n">
-        <v>360.5933333333333</v>
+        <v>360.59</v>
       </c>
       <c r="D243" t="n">
-        <v>423.8014285714286</v>
+        <v>423.8</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>346.13</v>
       </c>
       <c r="C244" t="n">
-        <v>354.7766666666667</v>
+        <v>354.78</v>
       </c>
       <c r="D244" t="n">
         <v>422.51</v>
@@ -5427,7 +5427,7 @@
         <v>384.72</v>
       </c>
       <c r="D245" t="n">
-        <v>386.5614285714286</v>
+        <v>386.56</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
       <c r="B247" t="inlineStr"/>
       <c r="C247" t="inlineStr"/>
       <c r="D247" t="n">
-        <v>414.2414285714286</v>
+        <v>414.24</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -5479,7 +5479,7 @@
         <v>354.91</v>
       </c>
       <c r="C248" t="n">
-        <v>355.8233333333333</v>
+        <v>355.82</v>
       </c>
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr">
@@ -5498,7 +5498,7 @@
         <v>344.99</v>
       </c>
       <c r="C249" t="n">
-        <v>351.0666666666667</v>
+        <v>351.07</v>
       </c>
       <c r="D249" t="n">
         <v>399.64</v>
@@ -5519,10 +5519,10 @@
         <v>354.98</v>
       </c>
       <c r="C250" t="n">
-        <v>363.9233333333333</v>
+        <v>363.92</v>
       </c>
       <c r="D250" t="n">
-        <v>400.1357142857143</v>
+        <v>400.14</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -5540,10 +5540,10 @@
         <v>382.32</v>
       </c>
       <c r="C251" t="n">
-        <v>363.0566666666667</v>
+        <v>363.06</v>
       </c>
       <c r="D251" t="n">
-        <v>407.1042857142857</v>
+        <v>407.1</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="C253" t="inlineStr"/>
       <c r="D253" t="n">
-        <v>416.6842857142857</v>
+        <v>416.68</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>361.28</v>
       </c>
       <c r="C255" t="n">
-        <v>373.1366666666667</v>
+        <v>373.14</v>
       </c>
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr">
@@ -5639,10 +5639,10 @@
         <v>306.34</v>
       </c>
       <c r="C256" t="n">
-        <v>319.6933333333333</v>
+        <v>319.69</v>
       </c>
       <c r="D256" t="n">
-        <v>380.8085714285714</v>
+        <v>380.81</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>337.07</v>
       </c>
       <c r="D258" t="n">
-        <v>384.2185714285715</v>
+        <v>384.22</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>333.1</v>
       </c>
       <c r="D259" t="n">
-        <v>395.8971428571429</v>
+        <v>395.9</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -5740,10 +5740,10 @@
         <v>326.58</v>
       </c>
       <c r="C261" t="n">
-        <v>330.2066666666666</v>
+        <v>330.21</v>
       </c>
       <c r="D261" t="n">
-        <v>387.5442857142857</v>
+        <v>387.54</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -5761,10 +5761,10 @@
         <v>348.79</v>
       </c>
       <c r="C262" t="n">
-        <v>342.4566666666666</v>
+        <v>342.46</v>
       </c>
       <c r="D262" t="n">
-        <v>395.9457142857143</v>
+        <v>395.95</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -5780,10 +5780,10 @@
       </c>
       <c r="B263" t="inlineStr"/>
       <c r="C263" t="n">
-        <v>347.1566666666666</v>
+        <v>347.16</v>
       </c>
       <c r="D263" t="n">
-        <v>384.4485714285714</v>
+        <v>384.45</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         <v>340.01</v>
       </c>
       <c r="C264" t="n">
-        <v>337.8933333333333</v>
+        <v>337.89</v>
       </c>
       <c r="D264" t="n">
         <v>393.91</v>
@@ -5822,10 +5822,10 @@
         <v>358.1</v>
       </c>
       <c r="C265" t="n">
-        <v>350.2433333333333</v>
+        <v>350.24</v>
       </c>
       <c r="D265" t="n">
-        <v>393.0357142857143</v>
+        <v>393.04</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -5843,10 +5843,10 @@
         <v>360.67</v>
       </c>
       <c r="C266" t="n">
-        <v>350.8633333333333</v>
+        <v>350.86</v>
       </c>
       <c r="D266" t="n">
-        <v>401.2214285714285</v>
+        <v>401.22</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -5864,10 +5864,10 @@
         <v>358.77</v>
       </c>
       <c r="C267" t="n">
-        <v>350.6566666666667</v>
+        <v>350.66</v>
       </c>
       <c r="D267" t="n">
-        <v>409.7014285714286</v>
+        <v>409.7</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -5888,7 +5888,7 @@
         <v>343.03</v>
       </c>
       <c r="D268" t="n">
-        <v>348.1242857142857</v>
+        <v>348.12</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -5906,10 +5906,10 @@
         <v>331.08</v>
       </c>
       <c r="C269" t="n">
-        <v>344.2233333333334</v>
+        <v>344.22</v>
       </c>
       <c r="D269" t="n">
-        <v>372.1957142857143</v>
+        <v>372.2</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -5927,10 +5927,10 @@
         <v>328.72</v>
       </c>
       <c r="C270" t="n">
-        <v>333.3633333333333</v>
+        <v>333.36</v>
       </c>
       <c r="D270" t="n">
-        <v>392.9085714285715</v>
+        <v>392.91</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -5948,10 +5948,10 @@
         <v>339.2</v>
       </c>
       <c r="C271" t="n">
-        <v>340.3566666666667</v>
+        <v>340.36</v>
       </c>
       <c r="D271" t="n">
-        <v>376.2185714285715</v>
+        <v>376.22</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -5967,10 +5967,10 @@
       </c>
       <c r="B272" t="inlineStr"/>
       <c r="C272" t="n">
-        <v>324.2466666666667</v>
+        <v>324.25</v>
       </c>
       <c r="D272" t="n">
-        <v>389.0157142857143</v>
+        <v>389.02</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -5988,10 +5988,10 @@
         <v>346.07</v>
       </c>
       <c r="C273" t="n">
-        <v>343.9533333333334</v>
+        <v>343.95</v>
       </c>
       <c r="D273" t="n">
-        <v>384.6071428571428</v>
+        <v>384.61</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -6009,10 +6009,10 @@
         <v>348.93</v>
       </c>
       <c r="C274" t="n">
-        <v>347.8533333333333</v>
+        <v>347.85</v>
       </c>
       <c r="D274" t="n">
-        <v>405.4285714285714</v>
+        <v>405.43</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         <v>348.37</v>
       </c>
       <c r="D275" t="n">
-        <v>396.0228571428572</v>
+        <v>396.02</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
       <c r="B276" t="inlineStr"/>
       <c r="C276" t="inlineStr"/>
       <c r="D276" t="n">
-        <v>406.6628571428572</v>
+        <v>406.66</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -6089,10 +6089,10 @@
         <v>339.57</v>
       </c>
       <c r="C278" t="n">
-        <v>331.1333333333333</v>
+        <v>331.13</v>
       </c>
       <c r="D278" t="n">
-        <v>387.0257142857143</v>
+        <v>387.03</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>349.32</v>
       </c>
       <c r="D279" t="n">
-        <v>382.9357142857143</v>
+        <v>382.94</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -6131,10 +6131,10 @@
         <v>348.95</v>
       </c>
       <c r="C280" t="n">
-        <v>352.0633333333333</v>
+        <v>352.06</v>
       </c>
       <c r="D280" t="n">
-        <v>406.7328571428571</v>
+        <v>406.73</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>350.77</v>
       </c>
       <c r="D281" t="n">
-        <v>411.1828571428572</v>
+        <v>411.18</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -6171,10 +6171,10 @@
         <v>342.13</v>
       </c>
       <c r="C282" t="n">
-        <v>331.7166666666666</v>
+        <v>331.72</v>
       </c>
       <c r="D282" t="n">
-        <v>406.4242857142857</v>
+        <v>406.42</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>340.53</v>
       </c>
       <c r="D283" t="n">
-        <v>402.3557142857143</v>
+        <v>402.36</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -6213,10 +6213,10 @@
         <v>347.2</v>
       </c>
       <c r="C284" t="n">
-        <v>355.4133333333334</v>
+        <v>355.41</v>
       </c>
       <c r="D284" t="n">
-        <v>411.6228571428572</v>
+        <v>411.62</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -6234,10 +6234,10 @@
         <v>333.67</v>
       </c>
       <c r="C285" t="n">
-        <v>334.9666666666666</v>
+        <v>334.97</v>
       </c>
       <c r="D285" t="n">
-        <v>397.5014285714286</v>
+        <v>397.5</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -6255,10 +6255,10 @@
         <v>331.68</v>
       </c>
       <c r="C286" t="n">
-        <v>326.5166666666667</v>
+        <v>326.52</v>
       </c>
       <c r="D286" t="n">
-        <v>382.6814285714286</v>
+        <v>382.68</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -6276,10 +6276,10 @@
         <v>352.15</v>
       </c>
       <c r="C287" t="n">
-        <v>352.3633333333333</v>
+        <v>352.36</v>
       </c>
       <c r="D287" t="n">
-        <v>402.9857142857143</v>
+        <v>402.99</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="C288" t="inlineStr"/>
       <c r="D288" t="n">
-        <v>410.0842857142857</v>
+        <v>410.08</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -6316,10 +6316,10 @@
         <v>315.49</v>
       </c>
       <c r="C289" t="n">
-        <v>328.5666666666667</v>
+        <v>328.57</v>
       </c>
       <c r="D289" t="n">
-        <v>371.0642857142857</v>
+        <v>371.06</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -6356,10 +6356,10 @@
         <v>333.13</v>
       </c>
       <c r="C291" t="n">
-        <v>333.7033333333334</v>
+        <v>333.7</v>
       </c>
       <c r="D291" t="n">
-        <v>397.2514285714286</v>
+        <v>397.25</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -6377,10 +6377,10 @@
         <v>348.3</v>
       </c>
       <c r="C292" t="n">
-        <v>328.1766666666667</v>
+        <v>328.18</v>
       </c>
       <c r="D292" t="n">
-        <v>394.6714285714286</v>
+        <v>394.67</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -6396,10 +6396,10 @@
       </c>
       <c r="B293" t="inlineStr"/>
       <c r="C293" t="n">
-        <v>336.1733333333333</v>
+        <v>336.17</v>
       </c>
       <c r="D293" t="n">
-        <v>392.9357142857143</v>
+        <v>392.94</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -6417,10 +6417,10 @@
         <v>330.55</v>
       </c>
       <c r="C294" t="n">
-        <v>322.0466666666667</v>
+        <v>322.05</v>
       </c>
       <c r="D294" t="n">
-        <v>394.8242857142857</v>
+        <v>394.82</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>333.55</v>
       </c>
       <c r="D295" t="n">
-        <v>389.5642857142857</v>
+        <v>389.56</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -6459,10 +6459,10 @@
         <v>313.33</v>
       </c>
       <c r="C296" t="n">
-        <v>319.7933333333333</v>
+        <v>319.79</v>
       </c>
       <c r="D296" t="n">
-        <v>398.5914285714285</v>
+        <v>398.59</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -6480,10 +6480,10 @@
         <v>341.19</v>
       </c>
       <c r="C297" t="n">
-        <v>333.8333333333333</v>
+        <v>333.83</v>
       </c>
       <c r="D297" t="n">
-        <v>401.6185714285714</v>
+        <v>401.62</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -6501,10 +6501,10 @@
         <v>320.54</v>
       </c>
       <c r="C298" t="n">
-        <v>317.9933333333333</v>
+        <v>317.99</v>
       </c>
       <c r="D298" t="n">
-        <v>399.3257142857143</v>
+        <v>399.33</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -6520,10 +6520,10 @@
       </c>
       <c r="B299" t="inlineStr"/>
       <c r="C299" t="n">
-        <v>335.8033333333333</v>
+        <v>335.8</v>
       </c>
       <c r="D299" t="n">
-        <v>408.7385714285714</v>
+        <v>408.74</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>324.25</v>
       </c>
       <c r="D300" t="n">
-        <v>401.0428571428571</v>
+        <v>401.04</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>341.87</v>
       </c>
       <c r="D301" t="n">
-        <v>388.9957142857143</v>
+        <v>389</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>347.48</v>
       </c>
       <c r="D302" t="n">
-        <v>405.9828571428571</v>
+        <v>405.98</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
       <c r="B303" t="inlineStr"/>
       <c r="C303" t="inlineStr"/>
       <c r="D303" t="n">
-        <v>388.4485714285714</v>
+        <v>388.45</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>323.38</v>
       </c>
       <c r="C304" t="n">
-        <v>329.7366666666666</v>
+        <v>329.74</v>
       </c>
       <c r="D304" t="n">
         <v>388.38</v>
@@ -6640,10 +6640,10 @@
         <v>329.67</v>
       </c>
       <c r="C305" t="n">
-        <v>326.5566666666667</v>
+        <v>326.56</v>
       </c>
       <c r="D305" t="n">
-        <v>399.1585714285715</v>
+        <v>399.16</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -6662,7 +6662,7 @@
         <v>342.69</v>
       </c>
       <c r="D306" t="n">
-        <v>406.6028571428572</v>
+        <v>406.6</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -6680,7 +6680,7 @@
         <v>296.99</v>
       </c>
       <c r="C307" t="n">
-        <v>301.5633333333333</v>
+        <v>301.56</v>
       </c>
       <c r="D307" t="inlineStr"/>
       <c r="E307" t="inlineStr">
@@ -6714,10 +6714,10 @@
       </c>
       <c r="B309" t="inlineStr"/>
       <c r="C309" t="n">
-        <v>339.2866666666667</v>
+        <v>339.29</v>
       </c>
       <c r="D309" t="n">
-        <v>404.0257142857143</v>
+        <v>404.03</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -6735,10 +6735,10 @@
         <v>336.89</v>
       </c>
       <c r="C310" t="n">
-        <v>341.8733333333333</v>
+        <v>341.87</v>
       </c>
       <c r="D310" t="n">
-        <v>405.7557142857143</v>
+        <v>405.76</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -6756,10 +6756,10 @@
         <v>350.88</v>
       </c>
       <c r="C311" t="n">
-        <v>333.4766666666667</v>
+        <v>333.48</v>
       </c>
       <c r="D311" t="n">
-        <v>409.2785714285715</v>
+        <v>409.28</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>335</v>
       </c>
       <c r="D312" t="n">
-        <v>409.2214285714285</v>
+        <v>409.22</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -6798,10 +6798,10 @@
         <v>345.46</v>
       </c>
       <c r="C313" t="n">
-        <v>349.8933333333334</v>
+        <v>349.89</v>
       </c>
       <c r="D313" t="n">
-        <v>424.2828571428572</v>
+        <v>424.28</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -6819,10 +6819,10 @@
         <v>319.77</v>
       </c>
       <c r="C314" t="n">
-        <v>321.5133333333333</v>
+        <v>321.51</v>
       </c>
       <c r="D314" t="n">
-        <v>379.0528571428572</v>
+        <v>379.05</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -6840,10 +6840,10 @@
         <v>333.42</v>
       </c>
       <c r="C315" t="n">
-        <v>332.6933333333333</v>
+        <v>332.69</v>
       </c>
       <c r="D315" t="n">
-        <v>409.1557142857143</v>
+        <v>409.16</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -6861,10 +6861,10 @@
         <v>344.56</v>
       </c>
       <c r="C316" t="n">
-        <v>336.7933333333333</v>
+        <v>336.79</v>
       </c>
       <c r="D316" t="n">
-        <v>400.3342857142857</v>
+        <v>400.33</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -6882,10 +6882,10 @@
         <v>375.56</v>
       </c>
       <c r="C317" t="n">
-        <v>359.4466666666667</v>
+        <v>359.45</v>
       </c>
       <c r="D317" t="n">
-        <v>420.1685714285715</v>
+        <v>420.17</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -6903,10 +6903,10 @@
         <v>357.39</v>
       </c>
       <c r="C318" t="n">
-        <v>356.1133333333333</v>
+        <v>356.11</v>
       </c>
       <c r="D318" t="n">
-        <v>417.2642857142857</v>
+        <v>417.26</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -6924,10 +6924,10 @@
         <v>330.99</v>
       </c>
       <c r="C319" t="n">
-        <v>321.8133333333333</v>
+        <v>321.81</v>
       </c>
       <c r="D319" t="n">
-        <v>379.3814285714286</v>
+        <v>379.38</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
       <c r="B320" t="inlineStr"/>
       <c r="C320" t="inlineStr"/>
       <c r="D320" t="n">
-        <v>403.5757142857143</v>
+        <v>403.58</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -6965,7 +6965,7 @@
         <v>331.49</v>
       </c>
       <c r="D321" t="n">
-        <v>380.2457142857143</v>
+        <v>380.25</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -6983,10 +6983,10 @@
         <v>334.73</v>
       </c>
       <c r="C322" t="n">
-        <v>339.1733333333333</v>
+        <v>339.17</v>
       </c>
       <c r="D322" t="n">
-        <v>414.0157142857143</v>
+        <v>414.02</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -7004,10 +7004,10 @@
         <v>353.7</v>
       </c>
       <c r="C323" t="n">
-        <v>354.6833333333333</v>
+        <v>354.68</v>
       </c>
       <c r="D323" t="n">
-        <v>416.8414285714285</v>
+        <v>416.84</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>329.3</v>
       </c>
       <c r="D324" t="n">
-        <v>404.8185714285714</v>
+        <v>404.82</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         <v>332.97</v>
       </c>
       <c r="D325" t="n">
-        <v>376.5085714285714</v>
+        <v>376.51</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -7067,10 +7067,10 @@
         <v>335.68</v>
       </c>
       <c r="C326" t="n">
-        <v>341.0033333333333</v>
+        <v>341</v>
       </c>
       <c r="D326" t="n">
-        <v>406.3471428571429</v>
+        <v>406.35</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -7088,10 +7088,10 @@
         <v>309.14</v>
       </c>
       <c r="C327" t="n">
-        <v>318.4333333333333</v>
+        <v>318.43</v>
       </c>
       <c r="D327" t="n">
-        <v>379.2142857142857</v>
+        <v>379.21</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -7109,10 +7109,10 @@
         <v>327.75</v>
       </c>
       <c r="C328" t="n">
-        <v>325.6333333333333</v>
+        <v>325.63</v>
       </c>
       <c r="D328" t="n">
-        <v>397.8585714285715</v>
+        <v>397.86</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -7130,10 +7130,10 @@
         <v>327.7</v>
       </c>
       <c r="C329" t="n">
-        <v>330.6633333333334</v>
+        <v>330.66</v>
       </c>
       <c r="D329" t="n">
-        <v>403.4157142857143</v>
+        <v>403.42</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         <v>327.11</v>
       </c>
       <c r="D330" t="n">
-        <v>392.4114285714285</v>
+        <v>392.41</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -7172,10 +7172,10 @@
         <v>327.07</v>
       </c>
       <c r="C331" t="n">
-        <v>326.6566666666666</v>
+        <v>326.66</v>
       </c>
       <c r="D331" t="n">
-        <v>385.1914285714286</v>
+        <v>385.19</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>327.65</v>
       </c>
       <c r="C332" t="n">
-        <v>329.0633333333333</v>
+        <v>329.06</v>
       </c>
       <c r="D332" t="n">
         <v>402.33</v>
@@ -7217,7 +7217,7 @@
         <v>323.2</v>
       </c>
       <c r="D333" t="n">
-        <v>392.2257142857143</v>
+        <v>392.23</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>323.46</v>
       </c>
       <c r="D334" t="n">
-        <v>395.3057142857143</v>
+        <v>395.31</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -7256,10 +7256,10 @@
         <v>311.39</v>
       </c>
       <c r="C335" t="n">
-        <v>317.3433333333333</v>
+        <v>317.34</v>
       </c>
       <c r="D335" t="n">
-        <v>388.3971428571429</v>
+        <v>388.4</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -7277,10 +7277,10 @@
         <v>323.06</v>
       </c>
       <c r="C336" t="n">
-        <v>326.8866666666667</v>
+        <v>326.89</v>
       </c>
       <c r="D336" t="n">
-        <v>391.3414285714285</v>
+        <v>391.34</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
       </c>
       <c r="B337" t="inlineStr"/>
       <c r="C337" t="n">
-        <v>331.0466666666666</v>
+        <v>331.05</v>
       </c>
       <c r="D337" t="inlineStr"/>
       <c r="E337" t="inlineStr">
@@ -11355,7 +11355,7 @@
         <v>0.08649999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04438424545560112</v>
+        <v>0.0443600333486779</v>
       </c>
       <c r="J3" t="n">
         <v>336</v>
@@ -11364,19 +11364,19 @@
         <v>307</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004536744467098508</v>
+        <v>0.0004531719227607311</v>
       </c>
       <c r="M3" t="n">
-        <v>12.21991650070809</v>
+        <v>12.22002990116056</v>
       </c>
       <c r="N3" t="n">
-        <v>228.5027515086395</v>
+        <v>228.5067438623961</v>
       </c>
       <c r="O3" t="n">
-        <v>15.11630746937358</v>
+        <v>15.11643952332678</v>
       </c>
       <c r="P3" t="n">
-        <v>338.2649466873973</v>
+        <v>338.2652070401153</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -11433,7 +11433,7 @@
         <v>0.08119999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4439062813874871</v>
+        <v>0.44392823885921</v>
       </c>
       <c r="J4" t="n">
         <v>336</v>
@@ -11442,19 +11442,19 @@
         <v>296</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05156592879280852</v>
+        <v>0.05157217990084084</v>
       </c>
       <c r="M4" t="n">
-        <v>10.93057913290705</v>
+        <v>10.93029645164102</v>
       </c>
       <c r="N4" t="n">
-        <v>195.1206692536542</v>
+        <v>195.1150336186522</v>
       </c>
       <c r="O4" t="n">
-        <v>13.96856002792178</v>
+        <v>13.96835830076864</v>
       </c>
       <c r="P4" t="n">
-        <v>387.6646694677499</v>
+        <v>387.6644753679348</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -11567,12 +11567,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-35.839946111063036,174.57959076963448</t>
+          <t>-35.839946104681026,174.57959080569336</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-35.84051447925982,174.58046803450418</t>
+          <t>-35.840514482818236,174.58046801930521</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -11594,12 +11594,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-35.839949372265664,174.57957234354487</t>
+          <t>-35.83994937864767,174.57957230748596</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-35.840517539502606,174.58045496340213</t>
+          <t>-35.84051754661944,174.58045493300423</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -11621,12 +11621,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-35.839969150027756,174.57946059702954</t>
+          <t>-35.83996915640972,174.57946056097063</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-35.84051081052504,174.58048370462626</t>
+          <t>-35.84051082120031,174.5804836590294</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -11672,7 +11672,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-35.840462152450165,174.5806915349867</t>
+          <t>-35.84046214889171,174.58069155018563</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -11699,7 +11699,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-35.84048713628428,174.5805848232341</t>
+          <t>-35.84048713272585,174.58058483843303</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -11726,7 +11726,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-35.8406319417616,174.57996631621526</t>
+          <t>-35.840631952436674,174.57996627061826</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -11753,7 +11753,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-35.84053340292477,174.5803872064401</t>
+          <t>-35.84053341360001,174.5803871608432</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -11775,12 +11775,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-35.83997726149716,174.57941476615696</t>
+          <t>-35.839977255115194,174.57941480221584</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-35.840580843513564,174.58018457374118</t>
+          <t>-35.84058083995517,174.58018458894014</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -11807,7 +11807,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-35.840551774983844,174.5803087341761</t>
+          <t>-35.84055177142543,174.58030874937506</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -11829,12 +11829,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-35.83996924575724,174.57946005614596</t>
+          <t>-35.8399692521392,174.57946002008705</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-35.84054577551397,174.58033435963776</t>
+          <t>-35.840545768397156,174.58033439003572</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -11856,12 +11856,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-35.83999855801088,174.57929443753216</t>
+          <t>-35.83999856439279,174.57929440147322</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-35.840525296855944,174.5804218296737</t>
+          <t>-35.84052529329753,174.58042184487263</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -11883,12 +11883,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-35.839965148533345,174.57948320596142</t>
+          <t>-35.83996515491532,174.57948316990252</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-35.84050491421287,174.58050888929068</t>
+          <t>-35.8405049177713,174.58050887409172</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -11929,12 +11929,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-35.83998743431478,174.57935728824287</t>
+          <t>-35.83998744069672,174.5793572521839</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-35.84055054733476,174.5803139778207</t>
+          <t>-35.84055055089315,174.58031396262174</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -11961,7 +11961,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-35.840504996056694,174.5805085397148</t>
+          <t>-35.84050499249827,174.58050855491373</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -11983,12 +11983,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-35.839955154351934,174.57953967419218</t>
+          <t>-35.83995516073393,174.5795396381333</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-35.84049589359247,174.5805474186279</t>
+          <t>-35.840495900709335,174.58054738823</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -12006,12 +12006,12 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-35.839974644896,174.57942955031046</t>
+          <t>-35.83997465127797,174.57942951425156</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-35.84048643171367,174.58058783262504</t>
+          <t>-35.8404864352721,174.58058781742608</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -12033,12 +12033,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-35.839985953705614,174.57936565391265</t>
+          <t>-35.83998594732368,174.57936568997155</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-35.840518532301985,174.58045072289323</t>
+          <t>-35.840518542977264,174.58045067729637</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -12060,12 +12060,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-35.839992865337415,174.57932660209784</t>
+          <t>-35.83999285895549,174.57932663815677</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-35.84059616591215,174.58011912691225</t>
+          <t>-35.840596158795385,174.58011915731024</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -12087,12 +12087,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-35.83996491878235,174.57948450408185</t>
+          <t>-35.839964925164324,174.57948446802294</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-35.84048459555964,174.5805956752799</t>
+          <t>-35.8404845920012,174.58059569047887</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -12114,7 +12114,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-35.83995710085804,174.57952867623018</t>
+          <t>-35.83995709447606,174.57952871228906</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -12141,12 +12141,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-35.839973955644666,174.5794334446727</t>
+          <t>-35.839973962026626,174.5794334086138</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-35.840515087750056,174.5804654354828</t>
+          <t>-35.84051508063322,174.5804654658807</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -12210,7 +12210,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-35.839959206912695,174.5795167767952</t>
+          <t>-35.8399592005307,174.5795168128541</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -12256,12 +12256,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-35.839933844831656,174.57966007479465</t>
+          <t>-35.83993385121367,174.5796600387358</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-35.84046325201127,174.58068683851593</t>
+          <t>-35.84046324489437,174.58068686891383</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -12283,12 +12283,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-35.83993328321346,174.57966324797522</t>
+          <t>-35.839933276831424,174.5796632840341</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-35.840495441671514,174.58054934889424</t>
+          <t>-35.84049545234682,174.5805493032974</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -12310,12 +12310,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-35.83994106289456,174.57961929220835</t>
+          <t>-35.839941069276556,174.57961925614947</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-35.840529698616216,174.5804030285596</t>
+          <t>-35.84052970217464,174.58040301336064</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -12337,12 +12337,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-35.83997908673492,174.57940445330775</t>
+          <t>-35.83997909311689,174.57940441724884</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-35.8405543477086,174.58029774532028</t>
+          <t>-35.84055433703339,174.5802977909172</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -12364,12 +12364,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-35.83994861918977,174.5795765984933</t>
+          <t>-35.83994861280777,174.57957663455215</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-35.84051147950883,174.58048084722293</t>
+          <t>-35.84051146883357,174.5804808928198</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -12396,7 +12396,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-35.8405529777239,174.5803035969241</t>
+          <t>-35.84055296704868,174.58030364252102</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -12418,12 +12418,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-35.83992263798015,174.57972339416145</t>
+          <t>-35.8399226315981,174.5797234302203</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-35.84050140916063,174.5805238602571</t>
+          <t>-35.84050140560219,174.58052387545607</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -12445,12 +12445,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-35.839944617673815,174.57959920741274</t>
+          <t>-35.8399446112918,174.57959924347162</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-35.840528428262104,174.5804084545887</t>
+          <t>-35.840528431820516,174.58040843938974</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -12473,7 +12473,7 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-35.8406166941706,174.580031443927</t>
+          <t>-35.84061668349548,174.58003148952398</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -12495,7 +12495,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-35.83995154852654,174.5795600474646</t>
+          <t>-35.83995154214455,174.5795600835235</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -12527,7 +12527,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-35.840481442782355,174.5806091415431</t>
+          <t>-35.84048145345767,174.58060909594627</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -12549,12 +12549,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-35.83992017451064,174.57973731288075</t>
+          <t>-35.83992018089268,174.57973727682187</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-35.84047311246862,174.5806447222624</t>
+          <t>-35.84047310891019,174.58064473746134</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -12576,12 +12576,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-35.83993165579662,174.57967244298683</t>
+          <t>-35.8399316494146,174.57967247904568</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-35.84050280762331,174.58051788706967</t>
+          <t>-35.84050280050646,174.58051791746755</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -12600,7 +12600,7 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-35.840550404998616,174.5803145857795</t>
+          <t>-35.8405504014402,174.58031460097848</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -12622,12 +12622,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-35.83991854708822,174.5797465078891</t>
+          <t>-35.839918553470255,174.57974647183025</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-35.84049331372838,174.58055843786468</t>
+          <t>-35.840493310169954,174.5805584530636</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -12676,12 +12676,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-35.83991953630585,174.57974091876642</t>
+          <t>-35.8399195299238,174.5797409548253</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-35.84050035586539,174.58052835914626</t>
+          <t>-35.840500359423814,174.5805283439473</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -12703,12 +12703,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-35.83993595089917,174.57964817536708</t>
+          <t>-35.83993595728119,174.57964813930823</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-35.840519083857146,174.5804483670549</t>
+          <t>-35.84051909097398,174.580448336657</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -12735,7 +12735,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-35.84045974337877,174.58070182466489</t>
+          <t>-35.840459732703415,174.58070187026166</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -12757,12 +12757,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-35.839911137520815,174.57978837221623</t>
+          <t>-35.839911143902874,174.57978833615735</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-35.8405048786286,174.5805090412802</t>
+          <t>-35.84050486795331,174.58050908687704</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -12784,12 +12784,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-35.83995403750373,174.57954598449803</t>
+          <t>-35.839954031121735,174.5795460205569</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-35.8405916610025,174.58013836882986</t>
+          <t>-35.84059165032736,174.5801384144268</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -12811,7 +12811,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-35.839882877643184,174.57994804073627</t>
+          <t>-35.83988288402529,174.57994800467745</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -12839,7 +12839,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-35.840586697058264,174.58015957141416</t>
+          <t>-35.84058669349989,174.58015958661312</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -12866,7 +12866,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-35.840483460417644,174.58060052374276</t>
+          <t>-35.84048347109296,174.58060047814593</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -12893,7 +12893,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-35.84051534395646,174.580464341158</t>
+          <t>-35.840515354631734,174.58046429556114</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -12911,12 +12911,12 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-35.8399175451062,174.57975216912934</t>
+          <t>-35.839917538724166,174.5797522051882</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-35.84047048633597,174.58065593907875</t>
+          <t>-35.84047049345286,174.58065590868085</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -12938,12 +12938,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-35.83993242802195,174.57966807986372</t>
+          <t>-35.839932434403984,174.57966804380484</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-35.84053570165892,174.5803773879098</t>
+          <t>-35.840535705217334,174.58037737271084</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -12965,12 +12965,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-35.8398743000779,174.57999650378616</t>
+          <t>-35.83987430646003,174.57999646772734</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-35.84052660279483,174.58041625165544</t>
+          <t>-35.84052661347008,174.58041620605854</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -12997,7 +12997,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-35.84051961050332,174.58044611760923</t>
+          <t>-35.840519614061726,174.5804461024103</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -13019,12 +13019,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-35.83989945832849,174.5798543598984</t>
+          <t>-35.839899464710584,174.57985432383956</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-35.84048423259889,174.58059722557215</t>
+          <t>-35.84048424327421,174.58059717997529</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -13046,7 +13046,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-35.83992250395724,174.5797241513975</t>
+          <t>-35.839922497575195,174.57972418745635</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -13073,12 +13073,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-35.83991765998314,174.57975152006998</t>
+          <t>-35.839917653601084,174.57975155612883</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-35.84051749324312,174.58045516098858</t>
+          <t>-35.840517496801546,174.5804551457896</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -13100,7 +13100,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-35.8398919274642,174.57989690932186</t>
+          <t>-35.83989192108209,174.57989694538068</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -13123,12 +13123,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-35.83992480787425,174.57971113414885</t>
+          <t>-35.839924814256285,174.57971109809</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-35.84060067437715,174.58009986979334</t>
+          <t>-35.8406006672604,174.58009990019133</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -13150,7 +13150,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-35.839896445984564,174.5798713796688</t>
+          <t>-35.83989643960247,174.57987141572764</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -13173,12 +13173,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-35.839901411245116,174.57984332589396</t>
+          <t>-35.83990141762718,174.5798432898351</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-35.8404660062509,174.58067507454007</t>
+          <t>-35.84046600980936,174.5806750593411</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -13219,12 +13219,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-35.83989911369604,174.57985630707557</t>
+          <t>-35.83989912007813,174.57985627101675</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-35.84050535901632,174.58050698942176</t>
+          <t>-35.84050536613318,174.58050695902384</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -13246,12 +13246,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-35.8399040853352,174.57982821723988</t>
+          <t>-35.83990407895312,174.57982825329876</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-35.84048480550751,174.58059477854226</t>
+          <t>-35.84048481618283,174.58059473294543</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -13273,7 +13273,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-35.83986200808687,174.58006595304806</t>
+          <t>-35.83986201446902,174.58006591698927</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -13296,12 +13296,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-35.83989273160803,174.57989236590925</t>
+          <t>-35.83989272522595,174.57989240196807</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-35.840584530001884,174.58016882759526</t>
+          <t>-35.84058452644351,174.58016884279422</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -13323,12 +13323,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-35.83988982775447,174.57990877267653</t>
+          <t>-35.83988983413657,174.57990873661768</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-35.840514678531484,174.58046718336269</t>
+          <t>-35.840514682089896,174.5804671681637</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -13347,7 +13347,7 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-35.84051842199095,174.58045119406088</t>
+          <t>-35.84051841843253,174.58045120925985</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -13369,12 +13369,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-35.839837589922716,174.5802039139749</t>
+          <t>-35.83983758354053,174.58020395003368</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-35.84043711158743,174.58079848985184</t>
+          <t>-35.840437115145896,174.5807984746529</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -13423,12 +13423,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-35.839864324804715,174.58005286370295</t>
+          <t>-35.83986433118686,174.58005282764415</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-35.84052750307408,174.5804124063185</t>
+          <t>-35.84052751019091,174.58041237592056</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -13450,7 +13450,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-35.839993082322884,174.57932537609432</t>
+          <t>-35.8399930887048,174.5793253400354</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -13469,7 +13469,7 @@
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-35.83997540434872,174.57942525930017</t>
+          <t>-35.83997539796677,174.57942529535907</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -13488,12 +13488,12 @@
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-35.839927137318,174.57969797266395</t>
+          <t>-35.83992713093597,174.57969800872283</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-35.84053639910752,174.58037440891292</t>
+          <t>-35.84053640266592,174.58037439371392</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -13520,7 +13520,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-35.84063967051557,174.57993330397895</t>
+          <t>-35.84063967407392,174.57993328877993</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -13542,12 +13542,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-35.83993146433576,174.57967352475285</t>
+          <t>-35.83993145795374,174.57967356081173</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-35.84055124122339,174.58031101402162</t>
+          <t>-35.840551248340205,174.58031098362366</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -13569,7 +13569,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-35.839884671015625,174.5799379082073</t>
+          <t>-35.839884664633516,174.57993794426613</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
@@ -13597,7 +13597,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-35.84052382011278,174.58042813724177</t>
+          <t>-35.8405238236712,174.5804281220428</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -13619,7 +13619,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-35.83991865558306,174.57974589488856</t>
+          <t>-35.83991864920101,174.5797459309474</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -13642,12 +13642,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-35.83992083824352,174.57973356275957</t>
+          <t>-35.83992083186147,174.57973359881842</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-35.84050383245074,174.58051350977183</t>
+          <t>-35.84050382177547,174.5805135553687</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -13669,12 +13669,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-35.83989583330415,174.57987484131687</t>
+          <t>-35.83989582692206,174.5798748773757</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-35.840481937405514,174.58060702889014</t>
+          <t>-35.84048192673021,174.58060707448698</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -13696,12 +13696,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-35.8398865856472,174.5799270905602</t>
+          <t>-35.83988657926509,174.57992712661905</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-35.84049755538026,174.5805403207191</t>
+          <t>-35.840497544704974,174.58054036631597</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -13728,7 +13728,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-35.84049682590173,174.58054343650355</t>
+          <t>-35.8404968223433,174.58054345170245</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -13750,7 +13750,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-35.83992939655798,174.57968520782578</t>
+          <t>-35.839929390175946,174.57968524388463</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
@@ -13800,12 +13800,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-35.83995369925821,174.57954789561919</t>
+          <t>-35.8399537056402,174.57954785956028</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-35.840527403438436,174.58041283188936</t>
+          <t>-35.84052741055527,174.58041280149143</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -13823,12 +13823,12 @@
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-35.83991808119851,174.57974914018556</t>
+          <t>-35.83991807481648,174.57974917624438</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-35.84058217435032,174.5801788893219</t>
+          <t>-35.84058218502547,174.58017884372492</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -13865,7 +13865,7 @@
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-35.83993389588786,174.57965978632367</t>
+          <t>-35.83993388950583,174.57965982238258</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -13892,12 +13892,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-35.83992169981966,174.57972869481372</t>
+          <t>-35.83992169343761,174.57972873087257</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>-35.840486292934614,174.58058842538384</t>
+          <t>-35.84048628581773,174.5805884557817</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -13919,7 +13919,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-35.839955728730885,174.579536428892</t>
+          <t>-35.83995573511288,174.57953639283312</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -13974,7 +13974,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>-35.84053851636173,174.58036536552908</t>
+          <t>-35.84053851992013,174.58036535033008</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -14015,12 +14015,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-35.83991997666717,174.5797384307053</t>
+          <t>-35.839919970285116,174.57973846676418</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>-35.84050348372475,174.58051499926904</t>
+          <t>-35.84050347304948,174.58051504486588</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -14042,7 +14042,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-35.8399063318247,174.5798155245273</t>
+          <t>-35.83990633820677,174.57981548846845</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
@@ -14070,7 +14070,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>-35.84053422847644,174.5803836802807</t>
+          <t>-35.84053423559327,174.58038364988275</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -14092,12 +14092,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-35.83990688068273,174.5798124234667</t>
+          <t>-35.839906874300674,174.57981245952556</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>-35.84048331808007,174.58060113170046</t>
+          <t>-35.84048332163852,174.58060111650153</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -14119,12 +14119,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-35.839926390619745,174.57970219155098</t>
+          <t>-35.8399263842377,174.57970222760986</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>-35.84052168862024,174.58043724141794</t>
+          <t>-35.84052168150338,174.58043727181587</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -14146,12 +14146,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-35.839918413065156,174.57974726512506</t>
+          <t>-35.83991841944721,174.57974722906621</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>-35.84051830100464,174.58045171082543</t>
+          <t>-35.84051829388781,174.58045174122333</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -14173,12 +14173,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-35.839965033657855,174.5794838550216</t>
+          <t>-35.839965040039814,174.57948381896273</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>-35.84055767125475,174.58028354948055</t>
+          <t>-35.840557674813155,174.5802835342816</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -14246,12 +14246,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-35.8399302581322,174.5796803398788</t>
+          <t>-35.83993025175017,174.57968037593767</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>-35.84052679494931,174.58041543091156</t>
+          <t>-35.840526787832474,174.5804154613095</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -14273,12 +14273,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-35.839923308094626,174.57971960798116</t>
+          <t>-35.83992330171259,174.57971964404</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>-35.84049985768514,174.58053048699918</t>
+          <t>-35.84049986124358,174.58053047180024</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -14305,7 +14305,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>-35.840570075824644,174.58023056585364</t>
+          <t>-35.84057007938303,174.58023055065465</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -14350,12 +14350,12 @@
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-35.8399468067014,174.57958683921626</t>
+          <t>-35.83994681308341,174.5795868031574</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>-35.840539825856446,174.5803597723099</t>
+          <t>-35.84053981518121,174.58035981790678</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -14377,12 +14377,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-35.83991965756477,174.57974023364815</t>
+          <t>-35.839919663946816,174.57974019758927</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>-35.84053121805908,174.580396538603</t>
+          <t>-35.84053122161748,174.58039652340403</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -14404,12 +14404,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-35.83995788584218,174.5795242409863</t>
+          <t>-35.83995787946021,174.5795242770452</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>-35.84053308266763,174.58038857434673</t>
+          <t>-35.84053308978446,174.5803885439488</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -14431,12 +14431,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-35.839954094941646,174.579545659968</t>
+          <t>-35.83995408855964,174.5795456960269</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>-35.84052985874488,174.58040234460634</t>
+          <t>-35.840529851628055,174.58040237500427</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -14458,12 +14458,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-35.83989549505346,174.579876752435</t>
+          <t>-35.83989550143556,174.5798767163762</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>-35.84050024555404,174.58052883031368</t>
+          <t>-35.84050023487875,174.58052887591055</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -14504,12 +14504,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-35.839915636872234,174.57976295072658</t>
+          <t>-35.83991564325428,174.57976291466773</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>-35.84048970547543,174.58057384959594</t>
+          <t>-35.84048969835856,174.58057387999384</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -14531,7 +14531,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-35.83994335403632,174.579606347071</t>
+          <t>-35.839943347654305,174.57960638312989</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -14581,12 +14581,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-35.83996918831954,174.5794603806761</t>
+          <t>-35.83996919470151,174.57946034461722</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>-35.84053172335381,174.58039438035038</t>
+          <t>-35.8405317197954,174.58039439554935</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -14613,7 +14613,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>-35.840558479011435,174.58028009931377</t>
+          <t>-35.840558471894646,174.5802801297117</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -14654,12 +14654,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-35.839935982809266,174.57964799507275</t>
+          <t>-35.83993597642725,174.57964803113163</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>-35.84050882492381,174.5804921856422</t>
+          <t>-35.840508828482236,174.58049217044328</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -14681,12 +14681,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-35.83993544671947,174.579651024018</t>
+          <t>-35.83993544033745,174.57965106007688</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>-35.84051974928169,174.5804455248499</t>
+          <t>-35.84051973860643,174.58044557044678</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -14713,7 +14713,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>-35.8404709062326,174.5806541456041</t>
+          <t>-35.84047091690792,174.58065410000728</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -14735,12 +14735,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-35.839920806333275,174.57973374305385</t>
+          <t>-35.83992081271533,174.579733706995</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>-35.84050258700073,174.58051882940458</t>
+          <t>-35.84050257632543,174.58051887500145</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -14762,12 +14762,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-35.83994071826586,174.5796212393877</t>
+          <t>-35.83994072464787,174.57962120332886</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-35.840533744532365,174.58038574733968</t>
+          <t>-35.840533737415555,174.58038577773758</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -14794,7 +14794,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>-35.84048638189555,174.58058804541025</t>
+          <t>-35.840486385453985,174.5805880302113</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -14813,7 +14813,7 @@
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>-35.840535484595826,174.5803783150466</t>
+          <t>-35.840535481037406,174.58037833024557</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -14835,7 +14835,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-35.83992499933543,174.579710052383</t>
+          <t>-35.83992500571747,174.57971001632413</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -14862,12 +14862,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-35.83993606577554,174.5796475263074</t>
+          <t>-35.83993607215757,174.57964749024853</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>-35.84050181482159,174.5805221275768</t>
+          <t>-35.84050180414629,174.58052217317365</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -14894,7 +14894,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>-35.84053290118857,174.58038934949386</t>
+          <t>-35.840532890513344,174.58038939509072</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -14916,7 +14916,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-35.83995883037574,174.57951890427</t>
+          <t>-35.83995883675772,174.5795188682111</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -14943,7 +14943,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-35.83995574149487,174.5795363567742</t>
+          <t>-35.83995573511288,174.57953639283312</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -14966,7 +14966,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-35.83993552330373,174.57965059131155</t>
+          <t>-35.83993551692172,174.5796506273704</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -14993,12 +14993,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-35.839916549506,174.57975779431058</t>
+          <t>-35.83991654312394,174.57975783036943</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>-35.84047648943174,174.58063029846898</t>
+          <t>-35.840476496548625,174.5806302680711</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -15025,7 +15025,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>-35.84052578435905,174.58041974741622</t>
+          <t>-35.84052579147588,174.5804197170183</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -15047,12 +15047,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-35.83992030853363,174.57973655564473</t>
+          <t>-35.83992031491567,174.57973651958588</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>-35.84059447568178,174.58012634643137</t>
+          <t>-35.84059446500665,174.58012639202832</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -15074,7 +15074,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-35.839922121034604,174.57972631492902</t>
+          <t>-35.83992211465256,174.5797263509879</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
@@ -15093,7 +15093,7 @@
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-35.83994403052917,174.57960252482974</t>
+          <t>-35.83994403691118,174.57960248877086</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -15120,12 +15120,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-35.839925401403875,174.5797077806747</t>
+          <t>-35.83992540778592,174.57970774461583</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>-35.840605976356564,174.58007722329702</t>
+          <t>-35.840605972798194,174.58007723849605</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -15147,12 +15147,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-35.83993102397577,174.57967601281473</t>
+          <t>-35.839931017593756,174.5796760488736</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>-35.84053148849853,174.58039538348189</t>
+          <t>-35.840531495615345,174.58039535308396</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -15174,12 +15174,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>-35.83994635996118,174.57958936333804</t>
+          <t>-35.83994635357918,174.57958939939695</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>-35.84056805821545,174.58023918367365</t>
+          <t>-35.84056806177384,174.5802391684747</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -15201,12 +15201,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-35.839960930047454,174.57950704089336</t>
+          <t>-35.83996092366547,174.57950707695227</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>-35.840533748090785,174.58038573214068</t>
+          <t>-35.840533737415555,174.58038577773758</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -15228,12 +15228,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-35.839972494176166,174.5794417021627</t>
+          <t>-35.8399724877942,174.57944173822165</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>-35.840543017748736,174.58034613883737</t>
+          <t>-35.84054302842395,174.58034609324048</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -15255,12 +15255,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-35.839935644562146,174.57964990619297</t>
+          <t>-35.83993565094416,174.57964987013412</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>-35.84050294640203,174.58051729431057</t>
+          <t>-35.840502949960474,174.58051727911163</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -15282,7 +15282,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-35.83992381227593,174.57971675933118</t>
+          <t>-35.83992381865797,174.57971672327233</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -15332,12 +15332,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-35.83996805232955,174.579466799161</t>
+          <t>-35.839968045947586,174.5794668352199</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>-35.84051169657271,174.58047992008673</t>
+          <t>-35.84051169301428,174.5804799352857</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -15359,12 +15359,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-35.83996675040801,174.57947415517717</t>
+          <t>-35.83996674402604,174.57947419123607</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>-35.84050860074299,174.58049314317628</t>
+          <t>-35.84050860430142,174.58049312797732</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -15386,7 +15386,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>-35.839978856984764,174.57940575142865</t>
+          <t>-35.839978863366724,174.57940571536977</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -15413,12 +15413,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-35.83997315151797,174.5794379880952</t>
+          <t>-35.83997315789993,174.5794379520363</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>-35.84047757831516,174.58062564759325</t>
+          <t>-35.84047756763984,174.58062569319006</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -15440,12 +15440,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-35.83995078906908,174.57956433847218</t>
+          <t>-35.839950795451074,174.57956430241327</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>-35.840519293803936,174.58044747031641</t>
+          <t>-35.84051929024552,174.5804474855154</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -15468,7 +15468,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>-35.84048585524677,174.58059029485392</t>
+          <t>-35.840485862363636,174.58059026445605</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -15490,7 +15490,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-35.839958804847804,174.57951904850557</t>
+          <t>-35.83995879846582,174.57951908456448</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
@@ -15513,7 +15513,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-35.83996828846232,174.57946546498158</t>
+          <t>-35.83996829484429,174.57946542892267</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -15540,7 +15540,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>-35.839976859434174,174.5794170378684</t>
+          <t>-35.839976853052214,174.57941707392732</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -15567,12 +15567,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-35.8399577135286,174.57952521457645</t>
+          <t>-35.83995770714662,174.57952525063533</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>-35.840517027089945,174.58045715205188</t>
+          <t>-35.84051702353153,174.5804571672508</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -15594,12 +15594,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-35.8399595196298,174.57951500990936</t>
+          <t>-35.83995952601178,174.57951497385048</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>-35.840502572767,174.58051889020038</t>
+          <t>-35.84050257632543,174.58051887500145</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -15621,12 +15621,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-35.839943449766444,174.5796058061878</t>
+          <t>-35.83994344338444,174.5796058422467</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>-35.84048507594882,174.58059362342257</t>
+          <t>-35.84048506527352,174.5805936690194</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -15648,12 +15648,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-35.83993877813342,174.57963220128605</t>
+          <t>-35.8399387717514,174.57963223734492</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>-35.84049950895895,174.58053197649622</t>
+          <t>-35.84049951251738,174.58053196129725</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -15675,12 +15675,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-35.83991291811584,174.57977831179727</t>
+          <t>-35.83991292449791,174.57977827573845</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>-35.84049221773065,174.58056311914018</t>
+          <t>-35.84049221417222,174.58056313433914</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -15702,7 +15702,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-35.839940156648666,174.57962441256888</t>
+          <t>-35.839940150266656,174.57962444862775</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -15726,7 +15726,7 @@
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr">
         <is>
-          <t>-35.84046405622089,174.58068340355666</t>
+          <t>-35.84046406689624,174.58068335795986</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -15748,7 +15748,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-35.839970203051905,174.5794546473102</t>
+          <t>-35.83997020943387,174.5794546112513</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -15829,12 +15829,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-35.83999007643487,174.57934235984854</t>
+          <t>-35.8399900828168,174.57934232378963</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>-35.84057676915876,174.58020197657441</t>
+          <t>-35.840576779833924,174.58020193097747</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -15856,12 +15856,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-35.839962270262845,174.57949946852497</t>
+          <t>-35.839962263880864,174.57949950458388</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>-35.84053510384579,174.5803799413357</t>
+          <t>-35.84053510740419,174.58037992613674</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -15888,7 +15888,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>-35.84047631150959,174.58063105841595</t>
+          <t>-35.84047632218493,174.58063101281914</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -15910,12 +15910,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-35.83998484963031,174.57937189210583</t>
+          <t>-35.839984856012244,174.57937185604692</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>-35.84052400515049,174.5804273468959</t>
+          <t>-35.84052399803366,174.58042737729383</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -15937,7 +15937,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-35.83996093642944,174.57950700483448</t>
+          <t>-35.839960942811416,174.57950696877558</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -15964,12 +15964,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-35.83994403052917,174.57960252482974</t>
+          <t>-35.83994403691118,174.57960248877086</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>-35.840466878070714,174.58067135080074</t>
+          <t>-35.84046688162917,174.5806713356018</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -15991,7 +15991,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-35.83995149747059,174.5795603359357</t>
+          <t>-35.839951503852575,174.57956029987682</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -16018,12 +16018,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-35.839953067441016,174.5795514654492</t>
+          <t>-35.83995307382301,174.5795514293903</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>-35.84049701449863,174.58054263095926</t>
+          <t>-35.84049702161549,174.5805426005614</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -16045,12 +16045,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-35.83999311423251,174.5793251957997</t>
+          <t>-35.83999310785058,174.5793252318586</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>-35.8405201478247,174.58044382256668</t>
+          <t>-35.84052013714944,174.58044386816354</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -16072,12 +16072,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-35.83996208518551,174.57950051423302</t>
+          <t>-35.839962091567486,174.57950047817408</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>-35.84053628167995,174.58037491047872</t>
+          <t>-35.84053627812153,174.5803749256777</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -16104,7 +16104,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>-35.84051361812147,174.5804717126513</t>
+          <t>-35.840513611004624,174.5804717430492</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -16126,7 +16126,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-35.83997112205456,174.57944945482774</t>
+          <t>-35.83997112843652,174.57944941876883</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -16158,7 +16158,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>-35.84049434923256,174.5805540149711</t>
+          <t>-35.84049435634943,174.58055398457319</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -16180,7 +16180,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-35.839973891825096,174.5794338052618</t>
+          <t>-35.83997388544314,174.5794338413207</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -16212,7 +16212,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>-35.840516543144645,174.5804592191099</t>
+          <t>-35.840516550261476,174.58045918871198</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -16234,12 +16234,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-35.83993701669652,174.57964215353533</t>
+          <t>-35.83993701031449,174.5796421895942</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>-35.840495480814276,174.58054918170583</t>
+          <t>-35.840495477255836,174.58054919690477</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -16266,7 +16266,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>-35.840521211792094,174.58043927807833</t>
+          <t>-35.84052120823367,174.58043929327727</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -16288,12 +16288,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-35.83994523672839,174.57959570970127</t>
+          <t>-35.83994524311039,174.57959567364242</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>-35.840499053479824,174.58053392196172</t>
+          <t>-35.84049906415511,174.58053387636485</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -16315,12 +16315,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-35.839951223044785,174.57956188646787</t>
+          <t>-35.8399512166628,174.57956192252672</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>-35.84052984806964,174.58040239020323</t>
+          <t>-35.840529851628055,174.58040237500427</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -16342,12 +16342,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-35.83997015837816,174.57945489972255</t>
+          <t>-35.839970151996184,174.57945493578143</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>-35.84056301952738,174.58026070542323</t>
+          <t>-35.84056303020257,174.5802606598263</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -16374,7 +16374,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>-35.84052562423031,174.5804204313694</t>
+          <t>-35.84052561711348,174.58042046176732</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -16396,7 +16396,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-35.83992815206154,174.57969223930453</t>
+          <t>-35.8399281456795,174.5796922753634</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -16420,7 +16420,7 @@
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr">
         <is>
-          <t>-35.840545430348584,174.58033583393765</t>
+          <t>-35.84054541967336,174.58033587953454</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -16465,12 +16465,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-35.83994908507573,174.5795739661947</t>
+          <t>-35.83994909145772,174.5795739301358</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>-35.840478023120426,174.5806237477257</t>
+          <t>-35.840478016003544,174.58062377812357</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -16524,7 +16524,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>-35.84053702894623,174.58037171869626</t>
+          <t>-35.84053702538782,174.5803717338952</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -16546,12 +16546,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-35.83992446324408,174.57971308132736</t>
+          <t>-35.83992446962612,174.57971304526853</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>-35.840456982019646,174.5807136190367</t>
+          <t>-35.840456992694996,174.58071357343988</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -16605,7 +16605,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>-35.840444716020194,174.5807660097475</t>
+          <t>-35.84044471246174,174.58076602494643</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -16632,7 +16632,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>-35.84044016119019,174.58078546437326</t>
+          <t>-35.840440154073264,174.5807854947711</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -16654,12 +16654,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-35.8399628510227,174.57949618716523</t>
+          <t>-35.839962857404686,174.57949615110635</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>-35.840506807296165,174.58050080344833</t>
+          <t>-35.84050681085459,174.5805007882494</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -16677,12 +16677,12 @@
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-35.83993772510058,174.57963815100035</t>
+          <t>-35.839937718718566,174.57963818705923</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>-35.84048663098617,174.58058698148415</t>
+          <t>-35.84048663454461,174.5805869662852</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -16700,12 +16700,12 @@
       <c r="B202" t="inlineStr"/>
       <c r="C202" t="inlineStr">
         <is>
-          <t>-35.839943468912466,174.57960569801116</t>
+          <t>-35.839943462530464,174.57960573407007</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>-35.84055803065312,174.58028201438432</t>
+          <t>-35.840558023536325,174.58028204478225</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -16727,12 +16727,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-35.83990820177092,174.5798049592858</t>
+          <t>-35.83990819538885,174.57980499534466</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>-35.84046524830135,174.58067831191335</t>
+          <t>-35.84046523762601,174.58067835751015</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -16755,7 +16755,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>-35.84051571047393,174.58046277566558</t>
+          <t>-35.8405157033571,174.5804628060635</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -16777,12 +16777,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>-35.839936084921604,174.5796474181308</t>
+          <t>-35.83993609130363,174.5796473820719</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>-35.84051995922845,174.58044462811142</t>
+          <t>-35.84051996278687,174.58044461291246</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -16831,7 +16831,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>-35.83992876473677,174.57968877765347</t>
+          <t>-35.83992875835473,174.57968881371235</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -16858,7 +16858,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>-35.839958919723486,174.57951839944548</t>
+          <t>-35.83995891334151,174.57951843550438</t>
         </is>
       </c>
       <c r="D208" t="inlineStr"/>
@@ -16881,12 +16881,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>-35.83994403052917,174.57960252482974</t>
+          <t>-35.83994403691118,174.57960248877086</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>-35.84051154000204,174.58048058884071</t>
+          <t>-35.84051154356046,174.58048057364175</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -16904,12 +16904,12 @@
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="inlineStr">
         <is>
-          <t>-35.839949391411665,174.5795722353682</t>
+          <t>-35.83994939779367,174.57957219930933</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>-35.84053482628966,174.58038112685486</t>
+          <t>-35.84053483340649,174.58038109645693</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -16928,7 +16928,7 @@
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr">
         <is>
-          <t>-35.84050978214025,174.58048809712383</t>
+          <t>-35.840509775023406,174.58048812752173</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -16950,12 +16950,12 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>-35.83993755278609,174.57963912458993</t>
+          <t>-35.83993754640407,174.57963916064884</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>-35.84053463769383,174.58038193239992</t>
+          <t>-35.84053463413542,174.58038194759888</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -16977,7 +16977,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>-35.83990423850498,174.5798273518277</t>
+          <t>-35.839904232122905,174.57982738788655</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -17004,7 +17004,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>-35.839916402718764,174.57975862366422</t>
+          <t>-35.83991640910082,174.57975858760537</t>
         </is>
       </c>
       <c r="D214" t="inlineStr"/>
@@ -17027,12 +17027,12 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>-35.839907033852406,174.57981155805444</t>
+          <t>-35.839907027470325,174.5798115941133</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>-35.8404620919565,174.5806917933686</t>
+          <t>-35.84046209907341,174.5806917629707</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -17054,12 +17054,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-35.83993887386365,174.57963166040292</t>
+          <t>-35.83993886748164,174.57963169646177</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>-35.840536605495345,174.58037352737298</t>
+          <t>-35.84053660193695,174.58037354257195</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -17086,7 +17086,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>-35.8405237667365,174.58042836522617</t>
+          <t>-35.84052377385334,174.58042833482824</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -17113,7 +17113,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>-35.84050035586539,174.58052835914626</t>
+          <t>-35.840500359423814,174.5805283439473</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -17154,12 +17154,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-35.83992376760163,174.5797170117432</t>
+          <t>-35.8399237612196,174.57971704780206</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>-35.84059411272701,174.58012789672804</t>
+          <t>-35.84059411628539,174.58012788152908</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -17181,12 +17181,12 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>-35.839922988992505,174.57972141092415</t>
+          <t>-35.83992299537456,174.57972137486527</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>-35.84052657432749,174.5804163732471</t>
+          <t>-35.840526563652254,174.58041641884398</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -17228,7 +17228,7 @@
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr">
         <is>
-          <t>-35.840449235262525,174.58074670710872</t>
+          <t>-35.8404492459379,174.5807466615119</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -17250,12 +17250,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-35.83991291811584,174.57977831179727</t>
+          <t>-35.83991292449791,174.57977827573845</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>-35.84053180519732,174.58039403077424</t>
+          <t>-35.84053179452208,174.58039407637114</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -17273,12 +17273,12 @@
       <c r="B225" t="inlineStr"/>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-35.83991848326771,174.57974686847766</t>
+          <t>-35.83991847688566,174.5797469045365</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>-35.84049962994558,174.58053145973196</t>
+          <t>-35.84049963706244,174.58053142933403</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -17300,7 +17300,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>-35.83989381018168,174.5798862719668</t>
+          <t>-35.83989381656376,174.57988623590796</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -17327,12 +17327,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>-35.8399175451062,174.57975216912934</t>
+          <t>-35.839917538724166,174.5797522051882</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>-35.840492167912565,174.58056333192545</t>
+          <t>-35.84049216435413,174.58056334712438</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -17350,12 +17350,12 @@
       <c r="B228" t="inlineStr"/>
       <c r="C228" t="inlineStr">
         <is>
-          <t>-35.83989014685937,174.5799069697351</t>
+          <t>-35.83989014047726,174.57990700579396</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>-35.84045496081791,174.58072225202994</t>
+          <t>-35.84045495014255,174.58072229762675</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -17377,12 +17377,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>-35.83991211397626,174.57978285521233</t>
+          <t>-35.83991212035831,174.5797828191535</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>-35.84048359919678,174.580599930984</t>
+          <t>-35.84048359563833,174.58059994618293</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -17409,7 +17409,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>-35.84048849916558,174.58057900203832</t>
+          <t>-35.84048850272402,174.58057898683938</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -17432,7 +17432,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>-35.84049344894887,174.58055786030468</t>
+          <t>-35.84049345962417,174.58055781470784</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -17459,7 +17459,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>-35.84053442774752,174.58038282913873</t>
+          <t>-35.84053443486434,174.58038279874083</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -17486,7 +17486,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>-35.840492249756565,174.58056298234968</t>
+          <t>-35.840492239081264,174.5805630279465</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>-35.8398907467765,174.57990358020527</t>
+          <t>-35.83989075315859,174.57990354414642</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -17535,12 +17535,12 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>-35.8399056234148,174.5798195270589</t>
+          <t>-35.83990562979687,174.57981949100005</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>-35.84051621221142,174.5804606326128</t>
+          <t>-35.840516201536154,174.58046067820968</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -17562,12 +17562,12 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>-35.83989713524991,174.5798674853147</t>
+          <t>-35.839897128867825,174.5798675213735</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>-35.84048122215905,174.58061008387747</t>
+          <t>-35.840481229275944,174.5806100534796</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -17589,12 +17589,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>-35.839880994920314,174.57995867808822</t>
+          <t>-35.839880988538205,174.57995871414704</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>-35.84046714139587,174.58067022607946</t>
+          <t>-35.840467130720526,174.58067027167627</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -17616,12 +17616,12 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>-35.83986512895439,174.5800483202937</t>
+          <t>-35.83986513533653,174.5800482842349</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>-35.84043813998337,174.58079409736268</t>
+          <t>-35.840438136424915,174.5807941125616</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -17643,12 +17643,12 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>-35.83988310101702,174.57994677867754</t>
+          <t>-35.83988309463491,174.57994681473636</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>-35.840460835823365,174.5806971585923</t>
+          <t>-35.840460828706455,174.58069718899014</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -17671,7 +17671,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>-35.84045833067327,174.5807078586413</t>
+          <t>-35.84045833779019,174.58070782824342</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -17693,7 +17693,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>-35.839948817031754,174.57957548066787</t>
+          <t>-35.83994882341376,174.579575444609</t>
         </is>
       </c>
       <c r="D241" t="inlineStr"/>
@@ -17716,12 +17716,12 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>-35.83987753581351,174.5799782219673</t>
+          <t>-35.839877542195616,174.57997818590852</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>-35.8404587398953,174.580706110764</t>
+          <t>-35.84045873633685,174.58070612596293</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -17743,12 +17743,12 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>-35.839893944205585,174.57988551473133</t>
+          <t>-35.83989395058768,174.5798854786725</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>-35.84043746031686,174.58079700035728</t>
+          <t>-35.840437463875325,174.58079698515834</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -17770,7 +17770,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>-35.83990508093867,174.57982259206054</t>
+          <t>-35.8399050745566,174.5798226281194</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -17802,7 +17802,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>-35.840530221703155,174.58040079431228</t>
+          <t>-35.84053022526156,174.58040077911332</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -17840,7 +17840,7 @@
       <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr">
         <is>
-          <t>-35.84046127351284,174.5806952891234</t>
+          <t>-35.84046127707129,174.58069527392448</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -17862,7 +17862,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>-35.839903076967325,174.57983391453678</t>
+          <t>-35.8399030833494,174.57983387847793</t>
         </is>
       </c>
       <c r="D248" t="inlineStr"/>
@@ -17885,7 +17885,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>-35.83991218417892,174.579782458565</t>
+          <t>-35.83991217779686,174.57978249462386</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -17912,12 +17912,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>-35.83988756849103,174.57992153750115</t>
+          <t>-35.839887574873124,174.57992150144233</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>-35.84049640956516,174.58054521478047</t>
+          <t>-35.84049639888987,174.5805452603773</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -17939,12 +17939,12 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>-35.83988922783719,174.57991216220628</t>
+          <t>-35.839889221455095,174.57991219826513</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>-35.84047905151011,174.5806193552318</t>
+          <t>-35.84047906218543,174.58061930963498</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -17990,7 +17990,7 @@
       <c r="C253" t="inlineStr"/>
       <c r="D253" t="inlineStr">
         <is>
-          <t>-35.840455188558984,174.58072127929833</t>
+          <t>-35.84045519923434,174.58072123370155</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -18039,7 +18039,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>-35.83986992832031,174.58002120407144</t>
+          <t>-35.83986992193818,174.58002124013026</t>
         </is>
       </c>
       <c r="D255" t="inlineStr"/>
@@ -18062,12 +18062,12 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>-35.83997225166168,174.57944307240123</t>
+          <t>-35.83997225804363,174.5794430363423</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>-35.840544551422184,174.5803395880826</t>
+          <t>-35.84054454786377,174.58033960328157</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -18117,7 +18117,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>-35.84053605750005,174.58037586801345</t>
+          <t>-35.84053605394164,174.5803758832124</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -18144,7 +18144,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>-35.84050696742537,174.5805001194955</t>
+          <t>-35.84050696030851,174.5805001498934</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -18189,12 +18189,12 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>-35.83995212290604,174.5795568021647</t>
+          <t>-35.83995211652404,174.5795568382236</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>-35.84052777351367,174.5804112511975</t>
+          <t>-35.840527784188914,174.5804112056006</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -18216,12 +18216,12 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>-35.83992866900626,174.57968931853648</t>
+          <t>-35.83992866262424,174.57968935459533</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>-35.840506846438856,174.58050063625987</t>
+          <t>-35.84050683576357,174.58050068185673</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -18239,12 +18239,12 @@
       <c r="B263" t="inlineStr"/>
       <c r="C263" t="inlineStr">
         <is>
-          <t>-35.83991967032887,174.57974016153045</t>
+          <t>-35.839919663946816,174.57974019758927</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>-35.840535484595826,174.5803783150466</t>
+          <t>-35.840535481037406,174.58037833024557</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -18266,7 +18266,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>-35.83993740599966,174.57963995394405</t>
+          <t>-35.839937412381694,174.57963991788517</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -18293,12 +18293,12 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>-35.83991376054761,174.57977355202902</t>
+          <t>-35.83991376692967,174.57977351597017</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>-35.84051409495016,174.58046967599134</t>
+          <t>-35.84051408427488,174.5804697215882</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -18320,12 +18320,12 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>-35.8399125734846,174.57978025897518</t>
+          <t>-35.83991257986668,174.57978022291633</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>-35.840493705156106,174.5805567659805</t>
+          <t>-35.84049370871453,174.58055675078157</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -18347,12 +18347,12 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>-35.83991296917231,174.5797780233265</t>
+          <t>-35.83991296279026,174.57977805938532</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>-35.840472582260354,174.58064698690424</t>
+          <t>-35.840472585818794,174.5806469717053</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -18379,7 +18379,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>-35.84062596371372,174.5799918505371</t>
+          <t>-35.8406259743888,174.57999180494008</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -18401,12 +18401,12 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>-35.83992528652718,174.5797084297342</t>
+          <t>-35.83992529290921,174.57970839367536</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>-35.84056600502168,174.58024795348297</t>
+          <t>-35.8405659943465,174.5802479990799</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -18428,12 +18428,12 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>-35.83994607915302,174.57959094992887</t>
+          <t>-35.83994608553501,174.57959091387002</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>-35.84051441164978,174.58046832328432</t>
+          <t>-35.84051440809135,174.58046833848329</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -18455,12 +18455,12 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>-35.83993268968505,174.57966660145007</t>
+          <t>-35.839932683303026,174.57966663750895</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>-35.84055598457307,174.58029075379338</t>
+          <t>-35.84055598101469,174.58029076899234</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -18478,12 +18478,12 @@
       <c r="B272" t="inlineStr"/>
       <c r="C272" t="inlineStr">
         <is>
-          <t>-35.83996353389408,174.57949232886307</t>
+          <t>-35.8399635275121,174.57949236492198</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>-35.840524108344596,174.5804269061261</t>
+          <t>-35.840524097669345,174.58042695172296</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -18505,12 +18505,12 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>-35.83992580347229,174.57970550896636</t>
+          <t>-35.839925809854336,174.5797054729075</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>-35.84053508961213,174.58038000213156</t>
+          <t>-35.840535082495315,174.58038003252946</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -18532,12 +18532,12 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>-35.83991833648055,174.57974769783132</t>
+          <t>-35.8399183428626,174.5797476617725</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>-35.84048322556066,174.58060152687298</t>
+          <t>-35.84048322200222,174.58060154207192</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -18564,7 +18564,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>-35.840506654283814,174.58050145700327</t>
+          <t>-35.84050666140066,174.5805014266054</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -18583,7 +18583,7 @@
       <c r="C276" t="inlineStr"/>
       <c r="D276" t="inlineStr">
         <is>
-          <t>-35.84048015106843,174.58061465875895</t>
+          <t>-35.84048015818531,174.58061462836105</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -18632,12 +18632,12 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>-35.83995034871132,174.57956682653534</t>
+          <t>-35.839950355093315,174.57956679047646</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>-35.8405290652184,174.5804057339747</t>
+          <t>-35.840529054543175,174.58040577957158</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -18664,7 +18664,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>-35.84053925295254,174.5803622193433</t>
+          <t>-35.84053924227731,174.5803622649402</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -18686,12 +18686,12 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>-35.83991027594229,174.57979324016068</t>
+          <t>-35.83991028232434,174.57979320410183</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>-35.84047997670482,174.58061540350707</t>
+          <t>-35.8404799838217,174.5806153731092</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -18714,7 +18714,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>-35.840468892151954,174.58066274820266</t>
+          <t>-35.84046889926884,174.58066271780478</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -18736,12 +18736,12 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>-35.839949231861695,174.57957313684034</t>
+          <t>-35.839949225479714,174.57957317289922</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>-35.84048074532803,174.5806121205357</t>
+          <t>-35.84048075600336,174.58061207493887</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -18768,7 +18768,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>-35.84049087975915,174.58056883394391</t>
+          <t>-35.840490869083844,174.58056887954075</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -18790,12 +18790,12 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>-35.83990386196258,174.57982947929935</t>
+          <t>-35.83990386834466,174.57982944324053</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>-35.84046779615022,174.58066742947514</t>
+          <t>-35.84046780326712,174.5806673990773</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -18817,12 +18817,12 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>-35.83994300940784,174.5796082942505</t>
+          <t>-35.83994300302583,174.57960833030936</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>-35.84050297131103,174.58051718791793</t>
+          <t>-35.84050297486948,174.580517172719</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -18844,12 +18844,12 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>-35.83995918776675,174.5795168849719</t>
+          <t>-35.83995918138476,174.5795169210308</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>-35.8405398863494,174.58035951392748</t>
+          <t>-35.84053988990781,174.5803594987285</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -18871,12 +18871,12 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>-35.83990970155647,174.57979648545697</t>
+          <t>-35.83990970793854,174.5797964493981</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>-35.84048931048904,174.58057553667885</t>
+          <t>-35.84048929981373,174.58057558227569</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -18899,7 +18899,7 @@
       <c r="C288" t="inlineStr"/>
       <c r="D288" t="inlineStr">
         <is>
-          <t>-35.84047162859705,174.58065106021968</t>
+          <t>-35.84047163927239,174.58065101462287</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -18921,12 +18921,12 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>-35.83995526284575,174.57953906119107</t>
+          <t>-35.83995525646375,174.57953909724995</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>-35.840568823270154,174.58023591589364</t>
+          <t>-35.840568833945326,174.5802358702967</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -18971,12 +18971,12 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>-35.83994542818855,174.57959462793482</t>
+          <t>-35.83994543457056,174.57959459187597</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>-35.84050359403605,174.58051452810153</t>
+          <t>-35.840503597594484,174.58051451290262</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -18998,12 +18998,12 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>-35.83995600953835,174.57953484230077</t>
+          <t>-35.83995600315635,174.57953487835965</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>-35.84051002055473,174.58048707879396</t>
+          <t>-35.84051002411316,174.580487063595</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -19021,12 +19021,12 @@
       <c r="B293" t="inlineStr"/>
       <c r="C293" t="inlineStr">
         <is>
-          <t>-35.83994069911982,174.57962134756437</t>
+          <t>-35.83994070550183,174.57962131150546</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>-35.84051434403974,174.58046861206446</t>
+          <t>-35.840514333364474,174.58046865766133</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -19048,12 +19048,12 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>-35.839967745995104,174.57946852998836</t>
+          <t>-35.839967739613144,174.57946856604727</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>-35.84050963980325,174.580488705082</t>
+          <t>-35.84050965047853,174.58048865948513</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -19080,7 +19080,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>-35.84052274191212,174.58043274252628</t>
+          <t>-35.84052275258739,174.58043269692942</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -19102,12 +19102,12 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>-35.83997206020286,174.5794441541684</t>
+          <t>-35.83997206658483,174.57944411810954</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>-35.84050025622933,174.58052878471685</t>
+          <t>-35.840500259787774,174.58052876951788</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -19129,12 +19129,12 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>-35.83994517929034,174.5795960342312</t>
+          <t>-35.83994518567235,174.57959599817235</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>-35.84049271591146,174.5805609912877</t>
+          <t>-35.840492712353026,174.58056100648665</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -19156,12 +19156,12 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>-35.83997550645999,174.5794246823576</t>
+          <t>-35.83997551284195,174.5794246462987</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>-35.84049842719595,174.5805365969767</t>
+          <t>-35.84049841652067,174.58053664257355</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -19179,12 +19179,12 @@
       <c r="B299" t="inlineStr"/>
       <c r="C299" t="inlineStr">
         <is>
-          <t>-35.839941407523206,174.579617345029</t>
+          <t>-35.839941413905215,174.57961730897009</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>-35.8404749806518,174.58063674281942</t>
+          <t>-35.84047497709336,174.58063675801833</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -19211,7 +19211,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>-35.84049414996031,174.58055486611215</t>
+          <t>-35.84049415707716,174.58055483571422</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -19238,7 +19238,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>-35.84052415816245,174.58042669334068</t>
+          <t>-35.8405241474872,174.58042673893755</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -19261,7 +19261,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>-35.84048184488608,174.58060742406263</t>
+          <t>-35.84048185200296,174.58060739366474</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -19280,7 +19280,7 @@
       <c r="C303" t="inlineStr"/>
       <c r="D303" t="inlineStr">
         <is>
-          <t>-35.84052552103622,174.58042087213923</t>
+          <t>-35.84052551747781,174.5804208873382</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -19302,7 +19302,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>-35.83995302276707,174.57955171786142</t>
+          <t>-35.839953016385074,174.57955175392033</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -19329,12 +19329,12 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>-35.83995911118296,174.57951731767864</t>
+          <t>-35.83995910480098,174.57951735373754</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>-35.84049884353238,174.5805348186997</t>
+          <t>-35.84049883997395,174.58053483389864</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -19357,7 +19357,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>-35.84048030052295,174.5806140204034</t>
+          <t>-35.84048030763982,174.58061399000553</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -19379,7 +19379,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>-35.8400069629852,174.57924694791214</t>
+          <t>-35.84000696936711,174.5792469118532</t>
         </is>
       </c>
       <c r="D307" t="inlineStr"/>
@@ -19417,12 +19417,12 @@
       <c r="B309" t="inlineStr"/>
       <c r="C309" t="inlineStr">
         <is>
-          <t>-35.83993473831498,174.57965502655273</t>
+          <t>-35.83993473193297,174.57965506261164</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>-35.840486719947116,174.58058660151056</t>
+          <t>-35.84048670927179,174.5805866471074</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -19444,12 +19444,12 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>-35.83992978586191,174.57968300823495</t>
+          <t>-35.83992979224393,174.57968297217607</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>-35.84048241067802,174.58060500743082</t>
+          <t>-35.8404824000027,174.58060505302763</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -19471,12 +19471,12 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>-35.83994586216488,174.57959217593088</t>
+          <t>-35.839945855782865,174.57959221198976</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>-35.84047363555997,174.5806424880184</t>
+          <t>-35.840473632001526,174.58064250321735</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -19503,7 +19503,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>-35.84047377789774,174.58064188006085</t>
+          <t>-35.84047378145619,174.5806418648619</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -19525,12 +19525,12 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>-35.83991443066365,174.57976976584965</t>
+          <t>-35.839914437045714,174.5797697297908</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>-35.84043626111454,174.5808021223947</t>
+          <t>-35.840436268231464,174.58080209199684</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -19552,12 +19552,12 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>-35.839968767109816,174.57946276056376</t>
+          <t>-35.83996877349178,174.57946272450488</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>-35.84054892470257,174.58032090855073</t>
+          <t>-35.84054893181938,174.5803208781528</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -19579,12 +19579,12 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>-35.83994736193561,174.57958370209343</t>
+          <t>-35.8399473683176,174.57958366603455</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>-35.84047394158618,174.58064118090965</t>
+          <t>-35.840473930910846,174.5806412265065</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -19606,12 +19606,12 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>-35.839939512065214,174.57962805451535</t>
+          <t>-35.839939518447224,174.5796280184565</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>-35.840495914943055,174.5805473274342</t>
+          <t>-35.84049592561837,174.58054728183737</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -19633,12 +19633,12 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>-35.83989613964437,174.57987311049283</t>
+          <t>-35.839896133262286,174.57987314655168</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>-35.840446509483655,174.58075834948798</t>
+          <t>-35.840446505925186,174.58075836468691</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -19660,12 +19660,12 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>-35.83990252172666,174.5798370516559</t>
+          <t>-35.839902528108745,174.57983701559706</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>-35.84045374382643,174.5807274500644</t>
+          <t>-35.84045375450181,174.5807274044676</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -19687,12 +19687,12 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>-35.839968192732826,174.57946600586513</t>
+          <t>-35.83996819911479,174.57946596980622</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>-35.840548106269516,174.5803244043136</t>
+          <t>-35.840548109827935,174.58032438911462</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -19711,7 +19711,7 @@
       <c r="C320" t="inlineStr"/>
       <c r="D320" t="inlineStr">
         <is>
-          <t>-35.84048784085479,174.58058181384308</t>
+          <t>-35.840487830179484,174.58058185943992</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -19738,7 +19738,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>-35.84054595343426,174.5803335996894</t>
+          <t>-35.84054594275904,174.5803336452863</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -19760,12 +19760,12 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>-35.83993495530376,174.5796538005511</t>
+          <t>-35.839934961685785,174.57965376449226</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>-35.840461835748066,174.58069288769184</t>
+          <t>-35.84046182507271,174.58069293328865</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -19787,12 +19787,12 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>-35.839905259636694,174.57982158241296</t>
+          <t>-35.83990526601877,174.5798215463541</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>-35.84045479712901,174.5807229511808</t>
+          <t>-35.84045480068747,174.58072293598187</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -19819,7 +19819,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>-35.84048474501405,174.5805950369243</t>
+          <t>-35.84048474145562,174.58059505212324</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -19846,7 +19846,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>-35.84055526221772,174.58029383918463</t>
+          <t>-35.84055525865932,174.5802938543836</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -19868,12 +19868,12 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>-35.839931451571715,174.57967359687058</t>
+          <t>-35.83993145795374,174.57967356081173</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>-35.84048093748382,174.58061129979285</t>
+          <t>-35.840480930366944,174.58061133019075</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -19895,12 +19895,12 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>-35.839974664041875,174.57942944213374</t>
+          <t>-35.83997467042383,174.57942940607484</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>-35.84054852260286,174.58032262603425</t>
+          <t>-35.84054853327807,174.58032258043733</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -19922,12 +19922,12 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>-35.839960878991626,174.57950732936453</t>
+          <t>-35.83996088537359,174.57950729330565</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>-35.840502081703775,174.58052098765555</t>
+          <t>-35.84050207814536,174.58052100285448</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -19949,12 +19949,12 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>-35.83995124857278,174.5795617422323</t>
+          <t>-35.839951254954755,174.57956170617342</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>-35.84048823939971,174.58058011156126</t>
+          <t>-35.840488228724396,174.58058015715812</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -19981,7 +19981,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>-35.84051564998075,174.58046303404782</t>
+          <t>-35.840515653539185,174.58046301884886</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -20003,12 +20003,12 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>-35.839958919723486,174.57951839944548</t>
+          <t>-35.83995891334151,174.57951843550438</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>-35.840533634221586,174.5803862185075</t>
+          <t>-35.84053363778,174.58038620330854</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -20030,7 +20030,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>-35.839954311929326,174.57954443396576</t>
+          <t>-35.839954318311314,174.57954439790686</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -20062,7 +20062,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>-35.84051611257561,174.58046105818357</t>
+          <t>-35.84051610190034,174.58046110378044</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -20089,7 +20089,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>-35.840508440613824,174.58049382712915</t>
+          <t>-35.84050842993855,174.580493872726</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -20111,12 +20111,12 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>-35.83997675094098,174.57941765086989</t>
+          <t>-35.83997675732293,174.579417614811</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>-35.840525649139224,174.58042032497667</t>
+          <t>-35.84052564202238,174.5804203553746</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -20138,12 +20138,12 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>-35.83995847936668,174.5795208875092</t>
+          <t>-35.8399584729847,174.57952092356808</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>-35.84051831523834,174.5804516500296</t>
+          <t>-35.84051831879676,174.58045163483067</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -20161,7 +20161,7 @@
       <c r="B337" t="inlineStr"/>
       <c r="C337" t="inlineStr">
         <is>
-          <t>-35.83995051464322,174.57956588900427</t>
+          <t>-35.83995050826124,174.57956592506318</t>
         </is>
       </c>
       <c r="D337" t="inlineStr"/>

--- a/data/nzd0103/nzd0103.xlsx
+++ b/data/nzd0103/nzd0103.xlsx
@@ -11268,13 +11268,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0365</v>
+        <v>0.0439</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0456</v>
+        <v>0.055</v>
       </c>
       <c r="I2" t="n">
         <v>0.05659072038499876</v>
@@ -11346,13 +11346,13 @@
         <v>0.5006427860234101</v>
       </c>
       <c r="F3" t="n">
-        <v>0.075</v>
+        <v>0.065</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06270000000000001</v>
+        <v>0.0583</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08649999999999999</v>
+        <v>0.0757</v>
       </c>
       <c r="I3" t="n">
         <v>0.0443600333486779</v>
@@ -11424,13 +11424,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0617</v>
+        <v>0.0519</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08119999999999999</v>
+        <v>0.0704</v>
       </c>
       <c r="I4" t="n">
         <v>0.44392823885921</v>
